--- a/Administration/MINTA-gantt-diagram.xlsx
+++ b/Administration/MINTA-gantt-diagram.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E818BF76-18C5-4C1E-BCA2-59E556FE9868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FBD8A0-CFD9-43AC-B28F-0D7A701D2E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="11" r:id="rId1"/>
@@ -902,6 +902,66 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -911,86 +971,26 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1801,41 +1801,41 @@
   </sheetPr>
   <dimension ref="A1:CE50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="72" zoomScaleNormal="72" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC9" sqref="AC9"/>
+      <selection pane="bottomLeft" activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.5703125" customWidth="1"/>
-    <col min="7" max="9" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="14" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.85546875" customWidth="1"/>
-    <col min="17" max="17" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="23" width="2.5703125" customWidth="1"/>
-    <col min="24" max="24" width="4.5703125" customWidth="1"/>
-    <col min="25" max="29" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.42578125" customWidth="1"/>
-    <col min="31" max="36" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.42578125" customWidth="1"/>
-    <col min="38" max="43" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="4.5703125" customWidth="1"/>
-    <col min="45" max="45" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="52" width="2.5703125" customWidth="1"/>
-    <col min="53" max="53" width="3.42578125" customWidth="1"/>
-    <col min="54" max="54" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="60" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="3.85546875" customWidth="1"/>
-    <col min="62" max="75" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="76" max="83" width="2.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.54296875" customWidth="1"/>
+    <col min="7" max="9" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.453125" customWidth="1"/>
+    <col min="11" max="14" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.81640625" customWidth="1"/>
+    <col min="17" max="17" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="2.54296875" customWidth="1"/>
+    <col min="24" max="24" width="4.54296875" customWidth="1"/>
+    <col min="25" max="29" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.453125" customWidth="1"/>
+    <col min="31" max="36" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.453125" customWidth="1"/>
+    <col min="38" max="43" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.54296875" customWidth="1"/>
+    <col min="45" max="45" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="46" max="52" width="2.54296875" customWidth="1"/>
+    <col min="53" max="53" width="3.453125" customWidth="1"/>
+    <col min="54" max="54" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="55" max="60" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="3.81640625" customWidth="1"/>
+    <col min="62" max="75" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="76" max="83" width="2.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:83" ht="25.5" customHeight="1">
@@ -1886,135 +1886,135 @@
       <c r="B2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="102"/>
+      <c r="E2" s="81"/>
       <c r="F2" s="15"/>
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:83" ht="25.5" customHeight="1">
       <c r="B3" s="26"/>
-      <c r="D3" s="102">
+      <c r="D3" s="81">
         <v>45560</v>
       </c>
-      <c r="E3" s="102"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:83" ht="25.5" customHeight="1">
       <c r="A4" s="17"/>
       <c r="D4"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="103">
+      <c r="F4" s="82"/>
+      <c r="G4" s="78">
         <f>G5</f>
         <v>45558</v>
       </c>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="103">
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="78">
         <f>N5</f>
         <v>45565</v>
       </c>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="103">
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="78">
         <f>U5</f>
         <v>45572</v>
       </c>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="105"/>
-      <c r="AB4" s="103">
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="78">
         <f>AB5</f>
         <v>45579</v>
       </c>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="105"/>
-      <c r="AI4" s="103">
+      <c r="AC4" s="79"/>
+      <c r="AD4" s="79"/>
+      <c r="AE4" s="79"/>
+      <c r="AF4" s="79"/>
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="78">
         <f>AI5</f>
         <v>45586</v>
       </c>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="104"/>
-      <c r="AL4" s="104"/>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="105"/>
-      <c r="AP4" s="103">
+      <c r="AJ4" s="79"/>
+      <c r="AK4" s="79"/>
+      <c r="AL4" s="79"/>
+      <c r="AM4" s="79"/>
+      <c r="AN4" s="79"/>
+      <c r="AO4" s="80"/>
+      <c r="AP4" s="78">
         <f>AP5</f>
         <v>45593</v>
       </c>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="104"/>
-      <c r="AS4" s="104"/>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="105"/>
-      <c r="AW4" s="103">
+      <c r="AQ4" s="79"/>
+      <c r="AR4" s="79"/>
+      <c r="AS4" s="79"/>
+      <c r="AT4" s="79"/>
+      <c r="AU4" s="79"/>
+      <c r="AV4" s="80"/>
+      <c r="AW4" s="78">
         <f>AW5</f>
         <v>45600</v>
       </c>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="104"/>
-      <c r="AZ4" s="104"/>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="105"/>
-      <c r="BD4" s="103">
+      <c r="AX4" s="79"/>
+      <c r="AY4" s="79"/>
+      <c r="AZ4" s="79"/>
+      <c r="BA4" s="79"/>
+      <c r="BB4" s="79"/>
+      <c r="BC4" s="80"/>
+      <c r="BD4" s="78">
         <f>BD5</f>
         <v>45607</v>
       </c>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="104"/>
-      <c r="BG4" s="104"/>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="104"/>
-      <c r="BJ4" s="105"/>
-      <c r="BK4" s="103">
+      <c r="BE4" s="79"/>
+      <c r="BF4" s="79"/>
+      <c r="BG4" s="79"/>
+      <c r="BH4" s="79"/>
+      <c r="BI4" s="79"/>
+      <c r="BJ4" s="80"/>
+      <c r="BK4" s="78">
         <f>BK5</f>
         <v>45614</v>
       </c>
-      <c r="BL4" s="104"/>
-      <c r="BM4" s="104"/>
-      <c r="BN4" s="104"/>
-      <c r="BO4" s="104"/>
-      <c r="BP4" s="104"/>
-      <c r="BQ4" s="105"/>
-      <c r="BR4" s="103">
+      <c r="BL4" s="79"/>
+      <c r="BM4" s="79"/>
+      <c r="BN4" s="79"/>
+      <c r="BO4" s="79"/>
+      <c r="BP4" s="79"/>
+      <c r="BQ4" s="80"/>
+      <c r="BR4" s="78">
         <f>BR5</f>
         <v>45621</v>
       </c>
-      <c r="BS4" s="104"/>
-      <c r="BT4" s="104"/>
-      <c r="BU4" s="104"/>
-      <c r="BV4" s="104"/>
-      <c r="BW4" s="104"/>
-      <c r="BX4" s="105"/>
-      <c r="BY4" s="103">
+      <c r="BS4" s="79"/>
+      <c r="BT4" s="79"/>
+      <c r="BU4" s="79"/>
+      <c r="BV4" s="79"/>
+      <c r="BW4" s="79"/>
+      <c r="BX4" s="80"/>
+      <c r="BY4" s="78">
         <f>BY5</f>
         <v>45628</v>
       </c>
-      <c r="BZ4" s="104"/>
-      <c r="CA4" s="104"/>
-      <c r="CB4" s="104"/>
-      <c r="CC4" s="104"/>
-      <c r="CD4" s="104"/>
-      <c r="CE4" s="105"/>
+      <c r="BZ4" s="79"/>
+      <c r="CA4" s="79"/>
+      <c r="CB4" s="79"/>
+      <c r="CC4" s="79"/>
+      <c r="CD4" s="79"/>
+      <c r="CE4" s="80"/>
     </row>
     <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1">
       <c r="A5" s="17"/>
@@ -2030,7 +2030,7 @@
       <c r="E5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="107"/>
+      <c r="F5" s="83"/>
       <c r="G5" s="6">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45558</v>
@@ -2526,14 +2526,14 @@
       <c r="F8" s="22"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="101"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="95"/>
       <c r="Q8" s="70"/>
       <c r="R8" s="70"/>
       <c r="S8" s="70"/>
@@ -2626,8 +2626,8 @@
       <c r="M9" s="27"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="89"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="102"/>
       <c r="R9" s="75"/>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
@@ -2815,9 +2815,9 @@
       <c r="V11" s="27"/>
       <c r="W11" s="27"/>
       <c r="X11" s="27"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="80"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="99"/>
+      <c r="AA11" s="100"/>
       <c r="AB11" s="27"/>
       <c r="AC11" s="27"/>
       <c r="AD11" s="27"/>
@@ -2909,8 +2909,8 @@
       <c r="W12" s="27"/>
       <c r="X12" s="27"/>
       <c r="Y12" s="27"/>
-      <c r="Z12" s="93"/>
-      <c r="AA12" s="95"/>
+      <c r="Z12" s="96"/>
+      <c r="AA12" s="97"/>
       <c r="AB12" s="27"/>
       <c r="AC12" s="27"/>
       <c r="AD12" s="27"/>
@@ -3007,10 +3007,10 @@
       <c r="AB13" s="27"/>
       <c r="AC13" s="27"/>
       <c r="AD13" s="27"/>
-      <c r="AE13" s="90"/>
-      <c r="AF13" s="91"/>
-      <c r="AG13" s="91"/>
-      <c r="AH13" s="92"/>
+      <c r="AE13" s="103"/>
+      <c r="AF13" s="104"/>
+      <c r="AG13" s="104"/>
+      <c r="AH13" s="105"/>
       <c r="AI13" s="27"/>
       <c r="AJ13" s="27"/>
       <c r="AK13" s="27"/>
@@ -3100,10 +3100,10 @@
       <c r="AB14" s="27"/>
       <c r="AC14" s="27"/>
       <c r="AD14" s="27"/>
-      <c r="AE14" s="81"/>
-      <c r="AF14" s="82"/>
-      <c r="AG14" s="82"/>
-      <c r="AH14" s="83"/>
+      <c r="AE14" s="84"/>
+      <c r="AF14" s="85"/>
+      <c r="AG14" s="85"/>
+      <c r="AH14" s="86"/>
       <c r="AI14" s="27"/>
       <c r="AJ14" s="27"/>
       <c r="AK14" s="27"/>
@@ -3193,10 +3193,10 @@
       <c r="AB15" s="27"/>
       <c r="AC15" s="27"/>
       <c r="AD15" s="27"/>
-      <c r="AE15" s="84"/>
-      <c r="AF15" s="85"/>
-      <c r="AG15" s="85"/>
-      <c r="AH15" s="86"/>
+      <c r="AE15" s="87"/>
+      <c r="AF15" s="88"/>
+      <c r="AG15" s="88"/>
+      <c r="AH15" s="89"/>
       <c r="AI15" s="14"/>
       <c r="AJ15" s="27"/>
       <c r="AK15" s="27"/>
@@ -3286,11 +3286,11 @@
       <c r="AB16" s="27"/>
       <c r="AC16" s="27"/>
       <c r="AD16" s="27"/>
-      <c r="AE16" s="96"/>
-      <c r="AF16" s="97"/>
-      <c r="AG16" s="97"/>
-      <c r="AH16" s="97"/>
-      <c r="AI16" s="98"/>
+      <c r="AE16" s="90"/>
+      <c r="AF16" s="91"/>
+      <c r="AG16" s="91"/>
+      <c r="AH16" s="91"/>
+      <c r="AI16" s="92"/>
       <c r="AJ16" s="27"/>
       <c r="AK16" s="27"/>
       <c r="AL16" s="14"/>
@@ -3382,8 +3382,8 @@
       <c r="AE17" s="27"/>
       <c r="AF17" s="27"/>
       <c r="AG17" s="27"/>
-      <c r="AH17" s="87"/>
-      <c r="AI17" s="89"/>
+      <c r="AH17" s="101"/>
+      <c r="AI17" s="102"/>
       <c r="AJ17" s="27"/>
       <c r="AK17" s="27"/>
       <c r="AL17" s="14"/>
@@ -3578,14 +3578,14 @@
       <c r="AS19" s="14"/>
       <c r="AT19" s="27"/>
       <c r="AU19" s="27"/>
-      <c r="AV19" s="96"/>
-      <c r="AW19" s="97"/>
-      <c r="AX19" s="97"/>
-      <c r="AY19" s="97"/>
-      <c r="AZ19" s="97"/>
-      <c r="BA19" s="97"/>
-      <c r="BB19" s="97"/>
-      <c r="BC19" s="98"/>
+      <c r="AV19" s="90"/>
+      <c r="AW19" s="91"/>
+      <c r="AX19" s="91"/>
+      <c r="AY19" s="91"/>
+      <c r="AZ19" s="91"/>
+      <c r="BA19" s="91"/>
+      <c r="BB19" s="91"/>
+      <c r="BC19" s="92"/>
       <c r="BD19" s="27"/>
       <c r="BE19" s="27"/>
       <c r="BF19" s="27"/>
@@ -3668,10 +3668,10 @@
       <c r="AP20" s="14"/>
       <c r="AQ20" s="14"/>
       <c r="AR20" s="14"/>
-      <c r="AS20" s="78"/>
-      <c r="AT20" s="79"/>
-      <c r="AU20" s="79"/>
-      <c r="AV20" s="80"/>
+      <c r="AS20" s="98"/>
+      <c r="AT20" s="99"/>
+      <c r="AU20" s="99"/>
+      <c r="AV20" s="100"/>
       <c r="AW20" s="27"/>
       <c r="AX20" s="27"/>
       <c r="AY20" s="27"/>
@@ -3759,18 +3759,18 @@
       <c r="AN21" s="14"/>
       <c r="AO21" s="14"/>
       <c r="AP21" s="14"/>
-      <c r="AQ21" s="93"/>
-      <c r="AR21" s="94"/>
-      <c r="AS21" s="94"/>
-      <c r="AT21" s="94"/>
-      <c r="AU21" s="94"/>
-      <c r="AV21" s="94"/>
-      <c r="AW21" s="94"/>
-      <c r="AX21" s="94"/>
-      <c r="AY21" s="94"/>
-      <c r="AZ21" s="94"/>
-      <c r="BA21" s="94"/>
-      <c r="BB21" s="95"/>
+      <c r="AQ21" s="96"/>
+      <c r="AR21" s="106"/>
+      <c r="AS21" s="106"/>
+      <c r="AT21" s="106"/>
+      <c r="AU21" s="106"/>
+      <c r="AV21" s="106"/>
+      <c r="AW21" s="106"/>
+      <c r="AX21" s="106"/>
+      <c r="AY21" s="106"/>
+      <c r="AZ21" s="106"/>
+      <c r="BA21" s="106"/>
+      <c r="BB21" s="97"/>
       <c r="BC21" s="27"/>
       <c r="BD21" s="27"/>
       <c r="BE21" s="27"/>
@@ -3807,7 +3807,7 @@
         <v>36</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D22" s="49">
         <v>45597</v>
@@ -3855,14 +3855,14 @@
       <c r="AQ22" s="14"/>
       <c r="AR22" s="14"/>
       <c r="AS22" s="14"/>
-      <c r="AT22" s="81"/>
-      <c r="AU22" s="82"/>
-      <c r="AV22" s="82"/>
-      <c r="AW22" s="82"/>
-      <c r="AX22" s="82"/>
-      <c r="AY22" s="82"/>
-      <c r="AZ22" s="82"/>
-      <c r="BA22" s="83"/>
+      <c r="AT22" s="98"/>
+      <c r="AU22" s="99"/>
+      <c r="AV22" s="99"/>
+      <c r="AW22" s="99"/>
+      <c r="AX22" s="99"/>
+      <c r="AY22" s="99"/>
+      <c r="AZ22" s="99"/>
+      <c r="BA22" s="100"/>
       <c r="BB22" s="27"/>
       <c r="BC22" s="27"/>
       <c r="BD22" s="27"/>
@@ -3900,7 +3900,7 @@
         <v>37</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D23" s="49">
         <v>45598</v>
@@ -3949,14 +3949,14 @@
       <c r="AR23" s="14"/>
       <c r="AS23" s="14"/>
       <c r="AT23" s="27"/>
-      <c r="AU23" s="78"/>
-      <c r="AV23" s="79"/>
-      <c r="AW23" s="79"/>
-      <c r="AX23" s="79"/>
-      <c r="AY23" s="79"/>
-      <c r="AZ23" s="79"/>
-      <c r="BA23" s="79"/>
-      <c r="BB23" s="80"/>
+      <c r="AU23" s="84"/>
+      <c r="AV23" s="85"/>
+      <c r="AW23" s="85"/>
+      <c r="AX23" s="85"/>
+      <c r="AY23" s="85"/>
+      <c r="AZ23" s="85"/>
+      <c r="BA23" s="85"/>
+      <c r="BB23" s="86"/>
       <c r="BC23" s="27"/>
       <c r="BD23" s="27"/>
       <c r="BE23" s="27"/>
@@ -4040,16 +4040,16 @@
       <c r="AP24" s="14"/>
       <c r="AQ24" s="27"/>
       <c r="AR24" s="14"/>
-      <c r="AS24" s="84"/>
-      <c r="AT24" s="85"/>
-      <c r="AU24" s="85"/>
-      <c r="AV24" s="85"/>
-      <c r="AW24" s="85"/>
-      <c r="AX24" s="85"/>
-      <c r="AY24" s="85"/>
-      <c r="AZ24" s="85"/>
-      <c r="BA24" s="85"/>
-      <c r="BB24" s="86"/>
+      <c r="AS24" s="87"/>
+      <c r="AT24" s="88"/>
+      <c r="AU24" s="88"/>
+      <c r="AV24" s="88"/>
+      <c r="AW24" s="88"/>
+      <c r="AX24" s="88"/>
+      <c r="AY24" s="88"/>
+      <c r="AZ24" s="88"/>
+      <c r="BA24" s="88"/>
+      <c r="BB24" s="89"/>
       <c r="BC24" s="27"/>
       <c r="BD24" s="27"/>
       <c r="BE24" s="27"/>
@@ -4134,15 +4134,15 @@
       <c r="AQ25" s="14"/>
       <c r="AR25" s="14"/>
       <c r="AS25" s="14"/>
-      <c r="AT25" s="90"/>
-      <c r="AU25" s="91"/>
-      <c r="AV25" s="91"/>
-      <c r="AW25" s="91"/>
-      <c r="AX25" s="91"/>
-      <c r="AY25" s="91"/>
-      <c r="AZ25" s="91"/>
-      <c r="BA25" s="91"/>
-      <c r="BB25" s="92"/>
+      <c r="AT25" s="103"/>
+      <c r="AU25" s="104"/>
+      <c r="AV25" s="104"/>
+      <c r="AW25" s="104"/>
+      <c r="AX25" s="104"/>
+      <c r="AY25" s="104"/>
+      <c r="AZ25" s="104"/>
+      <c r="BA25" s="104"/>
+      <c r="BB25" s="105"/>
       <c r="BC25" s="27"/>
       <c r="BD25" s="27"/>
       <c r="BE25" s="27"/>
@@ -4227,17 +4227,17 @@
       <c r="AQ26" s="14"/>
       <c r="AR26" s="27"/>
       <c r="AS26" s="14"/>
-      <c r="AT26" s="96"/>
-      <c r="AU26" s="97"/>
-      <c r="AV26" s="97"/>
-      <c r="AW26" s="97"/>
-      <c r="AX26" s="97"/>
-      <c r="AY26" s="97"/>
-      <c r="AZ26" s="97"/>
-      <c r="BA26" s="97"/>
-      <c r="BB26" s="97"/>
-      <c r="BC26" s="97"/>
-      <c r="BD26" s="98"/>
+      <c r="AT26" s="90"/>
+      <c r="AU26" s="91"/>
+      <c r="AV26" s="91"/>
+      <c r="AW26" s="91"/>
+      <c r="AX26" s="91"/>
+      <c r="AY26" s="91"/>
+      <c r="AZ26" s="91"/>
+      <c r="BA26" s="91"/>
+      <c r="BB26" s="91"/>
+      <c r="BC26" s="91"/>
+      <c r="BD26" s="92"/>
       <c r="BE26" s="27"/>
       <c r="BF26" s="27"/>
       <c r="BG26" s="14"/>
@@ -4320,15 +4320,15 @@
       <c r="AQ27" s="14"/>
       <c r="AR27" s="14"/>
       <c r="AS27" s="14"/>
-      <c r="AT27" s="87"/>
-      <c r="AU27" s="88"/>
-      <c r="AV27" s="88"/>
-      <c r="AW27" s="88"/>
-      <c r="AX27" s="88"/>
-      <c r="AY27" s="88"/>
-      <c r="AZ27" s="88"/>
-      <c r="BA27" s="88"/>
-      <c r="BB27" s="89"/>
+      <c r="AT27" s="101"/>
+      <c r="AU27" s="107"/>
+      <c r="AV27" s="107"/>
+      <c r="AW27" s="107"/>
+      <c r="AX27" s="107"/>
+      <c r="AY27" s="107"/>
+      <c r="AZ27" s="107"/>
+      <c r="BA27" s="107"/>
+      <c r="BB27" s="102"/>
       <c r="BC27" s="27"/>
       <c r="BD27" s="27"/>
       <c r="BE27" s="27"/>
@@ -4418,10 +4418,10 @@
       <c r="AV28" s="27"/>
       <c r="AW28" s="27"/>
       <c r="AX28" s="27"/>
-      <c r="AY28" s="81"/>
-      <c r="AZ28" s="82"/>
-      <c r="BA28" s="82"/>
-      <c r="BB28" s="83"/>
+      <c r="AY28" s="84"/>
+      <c r="AZ28" s="85"/>
+      <c r="BA28" s="85"/>
+      <c r="BB28" s="86"/>
       <c r="BC28" s="27"/>
       <c r="BD28" s="27"/>
       <c r="BE28" s="27"/>
@@ -4506,15 +4506,15 @@
       <c r="AQ29" s="14"/>
       <c r="AR29" s="14"/>
       <c r="AS29" s="14"/>
-      <c r="AT29" s="90"/>
-      <c r="AU29" s="91"/>
-      <c r="AV29" s="91"/>
-      <c r="AW29" s="91"/>
-      <c r="AX29" s="91"/>
-      <c r="AY29" s="91"/>
-      <c r="AZ29" s="91"/>
-      <c r="BA29" s="91"/>
-      <c r="BB29" s="92"/>
+      <c r="AT29" s="103"/>
+      <c r="AU29" s="104"/>
+      <c r="AV29" s="104"/>
+      <c r="AW29" s="104"/>
+      <c r="AX29" s="104"/>
+      <c r="AY29" s="104"/>
+      <c r="AZ29" s="104"/>
+      <c r="BA29" s="104"/>
+      <c r="BB29" s="105"/>
       <c r="BC29" s="27"/>
       <c r="BD29" s="27"/>
       <c r="BE29" s="27"/>
@@ -4597,17 +4597,17 @@
       <c r="AO30" s="14"/>
       <c r="AP30" s="27"/>
       <c r="AQ30" s="27"/>
-      <c r="AR30" s="87"/>
-      <c r="AS30" s="88"/>
-      <c r="AT30" s="88"/>
-      <c r="AU30" s="88"/>
-      <c r="AV30" s="88"/>
-      <c r="AW30" s="88"/>
-      <c r="AX30" s="88"/>
-      <c r="AY30" s="88"/>
-      <c r="AZ30" s="88"/>
-      <c r="BA30" s="88"/>
-      <c r="BB30" s="89"/>
+      <c r="AR30" s="101"/>
+      <c r="AS30" s="107"/>
+      <c r="AT30" s="107"/>
+      <c r="AU30" s="107"/>
+      <c r="AV30" s="107"/>
+      <c r="AW30" s="107"/>
+      <c r="AX30" s="107"/>
+      <c r="AY30" s="107"/>
+      <c r="AZ30" s="107"/>
+      <c r="BA30" s="107"/>
+      <c r="BB30" s="102"/>
       <c r="BC30" s="14"/>
       <c r="BD30" s="27"/>
       <c r="BE30" s="27"/>
@@ -4698,9 +4698,9 @@
       <c r="AW31" s="27"/>
       <c r="AX31" s="27"/>
       <c r="AY31" s="27"/>
-      <c r="AZ31" s="81"/>
-      <c r="BA31" s="82"/>
-      <c r="BB31" s="83"/>
+      <c r="AZ31" s="84"/>
+      <c r="BA31" s="85"/>
+      <c r="BB31" s="86"/>
       <c r="BC31" s="27"/>
       <c r="BD31" s="27"/>
       <c r="BE31" s="27"/>
@@ -4791,9 +4791,9 @@
       <c r="AW32" s="27"/>
       <c r="AX32" s="27"/>
       <c r="AY32" s="27"/>
-      <c r="AZ32" s="84"/>
-      <c r="BA32" s="85"/>
-      <c r="BB32" s="86"/>
+      <c r="AZ32" s="87"/>
+      <c r="BA32" s="88"/>
+      <c r="BB32" s="89"/>
       <c r="BC32" s="27"/>
       <c r="BD32" s="27"/>
       <c r="BE32" s="27"/>
@@ -4884,9 +4884,9 @@
       <c r="AW33" s="27"/>
       <c r="AX33" s="27"/>
       <c r="AY33" s="27"/>
-      <c r="AZ33" s="84"/>
-      <c r="BA33" s="85"/>
-      <c r="BB33" s="86"/>
+      <c r="AZ33" s="87"/>
+      <c r="BA33" s="88"/>
+      <c r="BB33" s="89"/>
       <c r="BC33" s="27"/>
       <c r="BD33" s="27"/>
       <c r="BE33" s="27"/>
@@ -4978,9 +4978,9 @@
       <c r="AX34" s="27"/>
       <c r="AY34" s="27"/>
       <c r="AZ34" s="27"/>
-      <c r="BA34" s="90"/>
-      <c r="BB34" s="91"/>
-      <c r="BC34" s="92"/>
+      <c r="BA34" s="103"/>
+      <c r="BB34" s="104"/>
+      <c r="BC34" s="105"/>
       <c r="BD34" s="27"/>
       <c r="BE34" s="27"/>
       <c r="BF34" s="27"/>
@@ -5071,9 +5071,9 @@
       <c r="AX35" s="27"/>
       <c r="AY35" s="27"/>
       <c r="AZ35" s="27"/>
-      <c r="BA35" s="90"/>
-      <c r="BB35" s="91"/>
-      <c r="BC35" s="92"/>
+      <c r="BA35" s="103"/>
+      <c r="BB35" s="104"/>
+      <c r="BC35" s="105"/>
       <c r="BD35" s="27"/>
       <c r="BE35" s="27"/>
       <c r="BF35" s="27"/>
@@ -5351,11 +5351,11 @@
       <c r="BD38" s="14"/>
       <c r="BE38" s="14"/>
       <c r="BF38" s="14"/>
-      <c r="BG38" s="93"/>
-      <c r="BH38" s="94"/>
-      <c r="BI38" s="94"/>
-      <c r="BJ38" s="94"/>
-      <c r="BK38" s="95"/>
+      <c r="BG38" s="96"/>
+      <c r="BH38" s="106"/>
+      <c r="BI38" s="106"/>
+      <c r="BJ38" s="106"/>
+      <c r="BK38" s="97"/>
       <c r="BL38" s="27"/>
       <c r="BM38" s="27"/>
       <c r="BN38" s="27"/>
@@ -5455,12 +5455,12 @@
       <c r="BO39" s="27"/>
       <c r="BP39" s="27"/>
       <c r="BQ39" s="27"/>
-      <c r="BR39" s="96"/>
-      <c r="BS39" s="97"/>
-      <c r="BT39" s="97"/>
-      <c r="BU39" s="97"/>
-      <c r="BV39" s="97"/>
-      <c r="BW39" s="98"/>
+      <c r="BR39" s="90"/>
+      <c r="BS39" s="91"/>
+      <c r="BT39" s="91"/>
+      <c r="BU39" s="91"/>
+      <c r="BV39" s="91"/>
+      <c r="BW39" s="92"/>
       <c r="BX39" s="27"/>
       <c r="BY39" s="27"/>
       <c r="BZ39" s="14"/>
@@ -5546,13 +5546,13 @@
       <c r="BM40" s="27"/>
       <c r="BN40" s="27"/>
       <c r="BO40" s="27"/>
-      <c r="BP40" s="78"/>
-      <c r="BQ40" s="79"/>
-      <c r="BR40" s="79"/>
-      <c r="BS40" s="79"/>
-      <c r="BT40" s="79"/>
-      <c r="BU40" s="79"/>
-      <c r="BV40" s="80"/>
+      <c r="BP40" s="98"/>
+      <c r="BQ40" s="99"/>
+      <c r="BR40" s="99"/>
+      <c r="BS40" s="99"/>
+      <c r="BT40" s="99"/>
+      <c r="BU40" s="99"/>
+      <c r="BV40" s="100"/>
       <c r="BW40" s="27"/>
       <c r="BX40" s="27"/>
       <c r="BY40" s="27"/>
@@ -6217,34 +6217,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
-    <mergeCell ref="AP4:AV4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="U4:AA4"/>
-    <mergeCell ref="AB4:AH4"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="AE14:AH14"/>
-    <mergeCell ref="AE15:AH15"/>
-    <mergeCell ref="AE16:AI16"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="I8:P8"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="AE13:AH13"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="AV19:BC19"/>
-    <mergeCell ref="AT26:BD26"/>
-    <mergeCell ref="AQ21:BB21"/>
-    <mergeCell ref="AU23:BB23"/>
-    <mergeCell ref="AS20:AV20"/>
     <mergeCell ref="BP40:BV40"/>
     <mergeCell ref="AZ31:BB31"/>
     <mergeCell ref="AY28:BB28"/>
@@ -6260,6 +6232,34 @@
     <mergeCell ref="BA35:BC35"/>
     <mergeCell ref="BG38:BK38"/>
     <mergeCell ref="BR39:BW39"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="AV19:BC19"/>
+    <mergeCell ref="AT26:BD26"/>
+    <mergeCell ref="AQ21:BB21"/>
+    <mergeCell ref="AU23:BB23"/>
+    <mergeCell ref="AS20:AV20"/>
+    <mergeCell ref="AE14:AH14"/>
+    <mergeCell ref="AE15:AH15"/>
+    <mergeCell ref="AE16:AI16"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="AI4:AO4"/>
+    <mergeCell ref="I8:P8"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="AE13:AH13"/>
+    <mergeCell ref="AP4:AV4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="U4:AA4"/>
+    <mergeCell ref="AB4:AH4"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
   </mergeCells>
   <conditionalFormatting sqref="U7:Y8 Z7:AF10 AI7:AM10 AN7:BC18 AL11:AM17 AI18:AM19 BD47:BX47">
     <cfRule type="expression" dxfId="31" priority="62">
@@ -6276,7 +6276,7 @@
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U10:Y10 AG7:AM10 BD7:CC19 G10:T47 AW20:CC20 BC21:CC21 BB22:CC22 BC23:CC25 BE26:CC26 BC27:CC33 AN30:AR30 AN31:AZ33 AN34:BA35 BD34:CC35 AN36:CC36 BD37:CC37 BY38:CC47 G6:CE6 G7:T7 CD7:CE47 G8:I8 Q8:T8 G9:P9 R9:T9 AT22 AT23:AU23 AT25:AT27 AT28:AY28 AT29 BD43:BR43 BT43:BX43 BD44:BT44 BV44:BX44 BD46:BT46 BV46:BX46">
+  <conditionalFormatting sqref="U10:Y10 AG7:AM10 BD7:CC19 G10:T47 AW20:CC20 BC21:CC21 BB22:CC22 BC23:CC25 BE26:CC26 BC27:CC33 AN30:AR30 AN31:AZ33 AN34:BA35 BD34:CC35 AN36:CC36 BD37:CC37 BY38:CC47 G6:CE6 G7:T7 CD7:CE47 G8:I8 Q8:T8 G9:P9 R9:T9 AT25:AT27 AT28:AY28 AT29 BD43:BR43 BT43:BX43 BD44:BT44 BV44:BX44 BD46:BT46 BV46:BX46 AT22:AT23 AU23">
     <cfRule type="expression" dxfId="28" priority="193">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>

--- a/Administration/MINTA-gantt-diagram.xlsx
+++ b/Administration/MINTA-gantt-diagram.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FBD8A0-CFD9-43AC-B28F-0D7A701D2E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9877AC07-FDCE-428D-90E3-78175AC4369D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="11" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t>Projekt kezdete:</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t xml:space="preserve">4. Mérföldkő </t>
-  </si>
-  <si>
-    <t>Mindenki</t>
   </si>
   <si>
     <t xml:space="preserve">3. Mérföldkő </t>
@@ -132,9 +129,6 @@
     <t>8.1.2. Bemutató elkészítése</t>
   </si>
   <si>
-    <t>8.1.1. Projektterv kitöltése</t>
-  </si>
-  <si>
     <t>Pilter Zsófia, Vass Kinga</t>
   </si>
   <si>
@@ -199,9 +193,6 @@
     <t>8.3.16. Tesztelési dokumentum a webshop funkcióihoz</t>
   </si>
   <si>
-    <t>8.3.17. Bemutató elkészítése</t>
-  </si>
-  <si>
     <t>8.4.4. Felhasználókezelés tesztelése (TR)</t>
   </si>
   <si>
@@ -217,7 +208,25 @@
     <t>8.4.8. Webshop tesztelése (TR)</t>
   </si>
   <si>
-    <t>8.4.9. Bemutató elkészítése</t>
+    <t>8.1.1. Összefoglaló, projektbemutató, rendszerspecifikáció és követelmények összeírása</t>
+  </si>
+  <si>
+    <t>8.1.1.2 Költség- és erőforrás-szükségletek összeírása</t>
+  </si>
+  <si>
+    <t>8.1.1.3 Szervezeti felépítés dokumentálása</t>
+  </si>
+  <si>
+    <t>8.1.1.4 Munkakörnyezet és rizikómenedzsment felvázolása</t>
+  </si>
+  <si>
+    <t>8.1.1.5 Munkamenedzsment és csoportgyűlések számontartása</t>
+  </si>
+  <si>
+    <t>8.1.1.6 Projektterv 7. pont kitöltése</t>
+  </si>
+  <si>
+    <t>8.1.1.7 Projektterv 8-10. pont kitöltése</t>
   </si>
 </sst>
 </file>
@@ -384,7 +393,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,12 +481,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,7 +704,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -867,39 +870,35 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="2" fillId="3" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -929,69 +928,65 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Cím" xfId="4" builtinId="15" customBuiltin="1"/>
@@ -1007,7 +1002,334 @@
     <cellStyle name="Task" xfId="11" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
     <cellStyle name="zHiddenText" xfId="2" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="72">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1326,18 +1648,6 @@
     <dxf>
       <border>
         <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
         </left>
       </border>
@@ -1431,15 +1741,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="40"/>
-      <tableStyleElement type="headerRow" dxfId="39"/>
-      <tableStyleElement type="totalRow" dxfId="38"/>
-      <tableStyleElement type="firstColumn" dxfId="37"/>
-      <tableStyleElement type="lastColumn" dxfId="36"/>
-      <tableStyleElement type="firstRowStripe" dxfId="35"/>
-      <tableStyleElement type="secondRowStripe" dxfId="34"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="33"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="32"/>
+      <tableStyleElement type="wholeTable" dxfId="71"/>
+      <tableStyleElement type="headerRow" dxfId="70"/>
+      <tableStyleElement type="totalRow" dxfId="69"/>
+      <tableStyleElement type="firstColumn" dxfId="68"/>
+      <tableStyleElement type="lastColumn" dxfId="67"/>
+      <tableStyleElement type="firstRowStripe" dxfId="66"/>
+      <tableStyleElement type="secondRowStripe" dxfId="65"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="64"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="63"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1799,49 +2109,49 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CE50"/>
+  <dimension ref="A1:CE54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="72" zoomScaleNormal="72" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD21" sqref="AD21"/>
+      <selection pane="bottomLeft" activeCell="CE7" sqref="CE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.54296875" customWidth="1"/>
-    <col min="7" max="9" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.453125" customWidth="1"/>
-    <col min="11" max="14" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.81640625" customWidth="1"/>
-    <col min="17" max="17" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="23" width="2.54296875" customWidth="1"/>
-    <col min="24" max="24" width="4.54296875" customWidth="1"/>
-    <col min="25" max="29" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.453125" customWidth="1"/>
-    <col min="31" max="36" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.453125" customWidth="1"/>
-    <col min="38" max="43" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="4.54296875" customWidth="1"/>
-    <col min="45" max="45" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="46" max="52" width="2.54296875" customWidth="1"/>
-    <col min="53" max="53" width="3.453125" customWidth="1"/>
-    <col min="54" max="54" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="55" max="60" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="3.81640625" customWidth="1"/>
-    <col min="62" max="75" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="76" max="83" width="2.54296875" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" customWidth="1"/>
+    <col min="7" max="9" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="14" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.85546875" customWidth="1"/>
+    <col min="17" max="17" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="2.5703125" customWidth="1"/>
+    <col min="24" max="24" width="4.5703125" customWidth="1"/>
+    <col min="25" max="29" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.42578125" customWidth="1"/>
+    <col min="31" max="36" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.42578125" customWidth="1"/>
+    <col min="38" max="43" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.5703125" customWidth="1"/>
+    <col min="45" max="45" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="52" width="2.5703125" customWidth="1"/>
+    <col min="53" max="53" width="3.42578125" customWidth="1"/>
+    <col min="54" max="54" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="60" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="3.85546875" customWidth="1"/>
+    <col min="62" max="75" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="76" max="83" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:83" ht="25.5" customHeight="1">
       <c r="A1" s="17"/>
       <c r="B1" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="3"/>
@@ -1850,171 +2160,169 @@
       <c r="G1" s="15"/>
       <c r="I1" s="29"/>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O1" s="59"/>
       <c r="P1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W1" s="63"/>
       <c r="X1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC1" s="60"/>
       <c r="AD1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" t="s">
         <v>25</v>
-      </c>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" t="s">
-        <v>26</v>
       </c>
       <c r="AQ1" s="61"/>
       <c r="AR1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ1" s="64"/>
       <c r="BA1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BH1" s="65"/>
-      <c r="BI1" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="BO1" s="67"/>
+      <c r="BI1" s="66"/>
+      <c r="BO1" s="105"/>
     </row>
     <row r="2" spans="1:83" ht="25.5" customHeight="1">
       <c r="B2" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="81"/>
+      <c r="E2" s="79"/>
       <c r="F2" s="15"/>
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:83" ht="25.5" customHeight="1">
       <c r="B3" s="26"/>
-      <c r="D3" s="81">
+      <c r="D3" s="79">
         <v>45560</v>
       </c>
-      <c r="E3" s="81"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:83" ht="25.5" customHeight="1">
       <c r="A4" s="17"/>
       <c r="D4"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="78">
+      <c r="F4" s="80"/>
+      <c r="G4" s="76">
         <f>G5</f>
         <v>45558</v>
       </c>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="78">
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="76">
         <f>N5</f>
         <v>45565</v>
       </c>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="78">
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="76">
         <f>U5</f>
         <v>45572</v>
       </c>
-      <c r="V4" s="79"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="78">
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="76">
         <f>AB5</f>
         <v>45579</v>
       </c>
-      <c r="AC4" s="79"/>
-      <c r="AD4" s="79"/>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="79"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="80"/>
-      <c r="AI4" s="78">
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="78"/>
+      <c r="AI4" s="76">
         <f>AI5</f>
         <v>45586</v>
       </c>
-      <c r="AJ4" s="79"/>
-      <c r="AK4" s="79"/>
-      <c r="AL4" s="79"/>
-      <c r="AM4" s="79"/>
-      <c r="AN4" s="79"/>
-      <c r="AO4" s="80"/>
-      <c r="AP4" s="78">
+      <c r="AJ4" s="77"/>
+      <c r="AK4" s="77"/>
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="78"/>
+      <c r="AP4" s="76">
         <f>AP5</f>
         <v>45593</v>
       </c>
-      <c r="AQ4" s="79"/>
-      <c r="AR4" s="79"/>
-      <c r="AS4" s="79"/>
-      <c r="AT4" s="79"/>
-      <c r="AU4" s="79"/>
-      <c r="AV4" s="80"/>
-      <c r="AW4" s="78">
+      <c r="AQ4" s="77"/>
+      <c r="AR4" s="77"/>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="77"/>
+      <c r="AV4" s="78"/>
+      <c r="AW4" s="76">
         <f>AW5</f>
         <v>45600</v>
       </c>
-      <c r="AX4" s="79"/>
-      <c r="AY4" s="79"/>
-      <c r="AZ4" s="79"/>
-      <c r="BA4" s="79"/>
-      <c r="BB4" s="79"/>
-      <c r="BC4" s="80"/>
-      <c r="BD4" s="78">
+      <c r="AX4" s="77"/>
+      <c r="AY4" s="77"/>
+      <c r="AZ4" s="77"/>
+      <c r="BA4" s="77"/>
+      <c r="BB4" s="77"/>
+      <c r="BC4" s="78"/>
+      <c r="BD4" s="76">
         <f>BD5</f>
         <v>45607</v>
       </c>
-      <c r="BE4" s="79"/>
-      <c r="BF4" s="79"/>
-      <c r="BG4" s="79"/>
-      <c r="BH4" s="79"/>
-      <c r="BI4" s="79"/>
-      <c r="BJ4" s="80"/>
-      <c r="BK4" s="78">
+      <c r="BE4" s="77"/>
+      <c r="BF4" s="77"/>
+      <c r="BG4" s="77"/>
+      <c r="BH4" s="77"/>
+      <c r="BI4" s="77"/>
+      <c r="BJ4" s="78"/>
+      <c r="BK4" s="76">
         <f>BK5</f>
         <v>45614</v>
       </c>
-      <c r="BL4" s="79"/>
-      <c r="BM4" s="79"/>
-      <c r="BN4" s="79"/>
-      <c r="BO4" s="79"/>
-      <c r="BP4" s="79"/>
-      <c r="BQ4" s="80"/>
-      <c r="BR4" s="78">
+      <c r="BL4" s="77"/>
+      <c r="BM4" s="77"/>
+      <c r="BN4" s="77"/>
+      <c r="BO4" s="77"/>
+      <c r="BP4" s="77"/>
+      <c r="BQ4" s="78"/>
+      <c r="BR4" s="76">
         <f>BR5</f>
         <v>45621</v>
       </c>
-      <c r="BS4" s="79"/>
-      <c r="BT4" s="79"/>
-      <c r="BU4" s="79"/>
-      <c r="BV4" s="79"/>
-      <c r="BW4" s="79"/>
-      <c r="BX4" s="80"/>
-      <c r="BY4" s="78">
+      <c r="BS4" s="77"/>
+      <c r="BT4" s="77"/>
+      <c r="BU4" s="77"/>
+      <c r="BV4" s="77"/>
+      <c r="BW4" s="77"/>
+      <c r="BX4" s="78"/>
+      <c r="BY4" s="76">
         <f>BY5</f>
         <v>45628</v>
       </c>
-      <c r="BZ4" s="79"/>
-      <c r="CA4" s="79"/>
-      <c r="CB4" s="79"/>
-      <c r="CC4" s="79"/>
-      <c r="CD4" s="79"/>
-      <c r="CE4" s="80"/>
+      <c r="BZ4" s="77"/>
+      <c r="CA4" s="77"/>
+      <c r="CB4" s="77"/>
+      <c r="CC4" s="77"/>
+      <c r="CD4" s="77"/>
+      <c r="CE4" s="78"/>
     </row>
     <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1">
       <c r="A5" s="17"/>
@@ -2030,7 +2338,7 @@
       <c r="E5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="83"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="6">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45558</v>
@@ -2512,32 +2820,32 @@
     <row r="8" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="17"/>
       <c r="B8" s="35" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D8" s="37">
         <v>45560</v>
       </c>
       <c r="E8" s="37">
-        <v>45567</v>
+        <v>45561</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="93"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
       <c r="U8" s="14"/>
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
@@ -2605,34 +2913,34 @@
     <row r="9" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A9" s="17"/>
       <c r="B9" s="35" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="68">
-        <v>45567</v>
+        <v>23</v>
+      </c>
+      <c r="D9" s="37">
+        <v>45566</v>
       </c>
       <c r="E9" s="37">
-        <v>45569</v>
+        <v>45566</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="27"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="102"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
       <c r="U9" s="14"/>
-      <c r="V9" s="70"/>
+      <c r="V9" s="14"/>
       <c r="W9" s="14"/>
       <c r="X9" s="14"/>
       <c r="Y9" s="14"/>
@@ -2697,137 +3005,143 @@
     </row>
     <row r="10" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A10" s="17"/>
-      <c r="B10" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="11"/>
+      <c r="B10" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="37">
+        <v>45568</v>
+      </c>
+      <c r="E10" s="37">
+        <v>45568</v>
+      </c>
       <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="22"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="22"/>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="22"/>
-      <c r="AL10" s="22"/>
-      <c r="AM10" s="22"/>
-      <c r="AN10" s="22"/>
-      <c r="AO10" s="22"/>
-      <c r="AP10" s="22"/>
-      <c r="AQ10" s="22"/>
-      <c r="AR10" s="22"/>
-      <c r="AS10" s="22"/>
-      <c r="AT10" s="22"/>
-      <c r="AU10" s="22"/>
-      <c r="AV10" s="22"/>
-      <c r="AW10" s="22"/>
-      <c r="AX10" s="22"/>
-      <c r="AY10" s="22"/>
-      <c r="AZ10" s="22"/>
-      <c r="BA10" s="22"/>
-      <c r="BB10" s="22"/>
-      <c r="BC10" s="22"/>
-      <c r="BD10" s="22"/>
-      <c r="BE10" s="22"/>
-      <c r="BF10" s="22"/>
-      <c r="BG10" s="22"/>
-      <c r="BH10" s="22"/>
-      <c r="BI10" s="22"/>
-      <c r="BJ10" s="22"/>
-      <c r="BK10" s="22"/>
-      <c r="BL10" s="22"/>
-      <c r="BM10" s="22"/>
-      <c r="BN10" s="22"/>
-      <c r="BO10" s="22"/>
-      <c r="BP10" s="22"/>
-      <c r="BQ10" s="22"/>
-      <c r="BR10" s="22"/>
-      <c r="BS10" s="22"/>
-      <c r="BT10" s="22"/>
-      <c r="BU10" s="22"/>
-      <c r="BV10" s="22"/>
-      <c r="BW10" s="22"/>
-      <c r="BX10" s="22"/>
-      <c r="BY10" s="22"/>
-      <c r="BZ10" s="22"/>
-      <c r="CA10" s="22"/>
-      <c r="CB10" s="22"/>
-      <c r="CC10" s="22"/>
-      <c r="CD10" s="22"/>
-      <c r="CE10" s="22"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="27"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="27"/>
+      <c r="AV10" s="27"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="14"/>
+      <c r="AY10" s="14"/>
+      <c r="AZ10" s="14"/>
+      <c r="BA10" s="14"/>
+      <c r="BB10" s="27"/>
+      <c r="BC10" s="27"/>
+      <c r="BD10" s="14"/>
+      <c r="BE10" s="14"/>
+      <c r="BF10" s="14"/>
+      <c r="BG10" s="14"/>
+      <c r="BH10" s="14"/>
+      <c r="BI10" s="27"/>
+      <c r="BJ10" s="27"/>
+      <c r="BK10" s="14"/>
+      <c r="BL10" s="14"/>
+      <c r="BM10" s="14"/>
+      <c r="BN10" s="14"/>
+      <c r="BO10" s="14"/>
+      <c r="BP10" s="27"/>
+      <c r="BQ10" s="27"/>
+      <c r="BR10" s="14"/>
+      <c r="BS10" s="14"/>
+      <c r="BT10" s="14"/>
+      <c r="BU10" s="14"/>
+      <c r="BV10" s="14"/>
+      <c r="BW10" s="27"/>
+      <c r="BX10" s="27"/>
+      <c r="BY10" s="14"/>
+      <c r="BZ10" s="14"/>
+      <c r="CA10" s="14"/>
+      <c r="CB10" s="14"/>
+      <c r="CC10" s="14"/>
+      <c r="CD10" s="27"/>
+      <c r="CE10" s="27"/>
     </row>
     <row r="11" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A11" s="17"/>
-      <c r="B11" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="43">
-        <v>45576</v>
-      </c>
-      <c r="E11" s="43">
-        <v>45578</v>
+      <c r="B11" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="37">
+        <v>45569</v>
+      </c>
+      <c r="E11" s="37">
+        <v>45569</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="98"/>
-      <c r="Z11" s="99"/>
-      <c r="AA11" s="100"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="27"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
       <c r="AG11" s="27"/>
       <c r="AH11" s="27"/>
-      <c r="AI11" s="27"/>
-      <c r="AJ11" s="27"/>
-      <c r="AK11" s="27"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
       <c r="AL11" s="14"/>
       <c r="AM11" s="14"/>
       <c r="AN11" s="27"/>
@@ -2877,50 +3191,50 @@
     </row>
     <row r="12" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="17"/>
-      <c r="B12" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="43">
-        <v>45577</v>
-      </c>
-      <c r="E12" s="43">
-        <v>45578</v>
+      <c r="B12" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="37">
+        <v>45571</v>
+      </c>
+      <c r="E12" s="37">
+        <v>45571</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="74"/>
       <c r="U12" s="14"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="96"/>
-      <c r="AA12" s="97"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="27"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
       <c r="AG12" s="27"/>
       <c r="AH12" s="27"/>
-      <c r="AI12" s="27"/>
-      <c r="AJ12" s="27"/>
-      <c r="AK12" s="27"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
       <c r="AL12" s="14"/>
       <c r="AM12" s="14"/>
       <c r="AN12" s="27"/>
@@ -2970,50 +3284,50 @@
     </row>
     <row r="13" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A13" s="17"/>
-      <c r="B13" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="43">
-        <v>45582</v>
-      </c>
-      <c r="E13" s="43">
-        <v>45585</v>
+      <c r="B13" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="37">
+        <v>45570</v>
+      </c>
+      <c r="E13" s="37">
+        <v>45570</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="69"/>
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
       <c r="W13" s="14"/>
       <c r="X13" s="14"/>
-      <c r="Y13" s="27"/>
+      <c r="Y13" s="14"/>
       <c r="Z13" s="27"/>
       <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="103"/>
-      <c r="AF13" s="104"/>
-      <c r="AG13" s="104"/>
-      <c r="AH13" s="105"/>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="27"/>
-      <c r="AK13" s="27"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
       <c r="AL13" s="14"/>
       <c r="AM13" s="14"/>
       <c r="AN13" s="27"/>
@@ -3063,50 +3377,50 @@
     </row>
     <row r="14" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="17"/>
-      <c r="B14" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="43">
-        <v>45582</v>
-      </c>
-      <c r="E14" s="43">
-        <v>45585</v>
+      <c r="B14" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="37">
+        <v>45570</v>
+      </c>
+      <c r="E14" s="37">
+        <v>45571</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="90"/>
       <c r="U14" s="14"/>
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
       <c r="X14" s="14"/>
-      <c r="Y14" s="27"/>
+      <c r="Y14" s="14"/>
       <c r="Z14" s="27"/>
       <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="84"/>
-      <c r="AF14" s="85"/>
-      <c r="AG14" s="85"/>
-      <c r="AH14" s="86"/>
-      <c r="AI14" s="27"/>
-      <c r="AJ14" s="27"/>
-      <c r="AK14" s="27"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
       <c r="AL14" s="14"/>
       <c r="AM14" s="14"/>
       <c r="AN14" s="27"/>
@@ -3156,17 +3470,17 @@
     </row>
     <row r="15" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A15" s="17"/>
-      <c r="B15" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="43">
-        <v>45582</v>
-      </c>
-      <c r="E15" s="43">
-        <v>45585</v>
+      <c r="B15" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="67">
+        <v>45570</v>
+      </c>
+      <c r="E15" s="37">
+        <v>45571</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="14"/>
@@ -3178,28 +3492,28 @@
       <c r="M15" s="27"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
       <c r="U15" s="14"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
       <c r="Z15" s="27"/>
       <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="87"/>
-      <c r="AF15" s="88"/>
-      <c r="AG15" s="88"/>
-      <c r="AH15" s="89"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
       <c r="AI15" s="14"/>
-      <c r="AJ15" s="27"/>
-      <c r="AK15" s="27"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
       <c r="AL15" s="14"/>
       <c r="AM15" s="14"/>
       <c r="AN15" s="27"/>
@@ -3249,110 +3563,104 @@
     </row>
     <row r="16" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A16" s="17"/>
-      <c r="B16" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="43">
-        <v>45583</v>
-      </c>
-      <c r="E16" s="43">
-        <v>45586</v>
-      </c>
+      <c r="B16" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="90"/>
-      <c r="AF16" s="91"/>
-      <c r="AG16" s="91"/>
-      <c r="AH16" s="91"/>
-      <c r="AI16" s="92"/>
-      <c r="AJ16" s="27"/>
-      <c r="AK16" s="27"/>
-      <c r="AL16" s="14"/>
-      <c r="AM16" s="14"/>
-      <c r="AN16" s="27"/>
-      <c r="AO16" s="27"/>
-      <c r="AP16" s="14"/>
-      <c r="AQ16" s="14"/>
-      <c r="AR16" s="14"/>
-      <c r="AS16" s="14"/>
-      <c r="AT16" s="14"/>
-      <c r="AU16" s="27"/>
-      <c r="AV16" s="27"/>
-      <c r="AW16" s="14"/>
-      <c r="AX16" s="14"/>
-      <c r="AY16" s="14"/>
-      <c r="AZ16" s="14"/>
-      <c r="BA16" s="14"/>
-      <c r="BB16" s="27"/>
-      <c r="BC16" s="27"/>
-      <c r="BD16" s="14"/>
-      <c r="BE16" s="14"/>
-      <c r="BF16" s="14"/>
-      <c r="BG16" s="14"/>
-      <c r="BH16" s="14"/>
-      <c r="BI16" s="27"/>
-      <c r="BJ16" s="27"/>
-      <c r="BK16" s="14"/>
-      <c r="BL16" s="14"/>
-      <c r="BM16" s="14"/>
-      <c r="BN16" s="14"/>
-      <c r="BO16" s="14"/>
-      <c r="BP16" s="27"/>
-      <c r="BQ16" s="27"/>
-      <c r="BR16" s="14"/>
-      <c r="BS16" s="14"/>
-      <c r="BT16" s="14"/>
-      <c r="BU16" s="14"/>
-      <c r="BV16" s="14"/>
-      <c r="BW16" s="27"/>
-      <c r="BX16" s="27"/>
-      <c r="BY16" s="14"/>
-      <c r="BZ16" s="14"/>
-      <c r="CA16" s="14"/>
-      <c r="CB16" s="14"/>
-      <c r="CC16" s="14"/>
-      <c r="CD16" s="27"/>
-      <c r="CE16" s="27"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="22"/>
+      <c r="AM16" s="22"/>
+      <c r="AN16" s="22"/>
+      <c r="AO16" s="22"/>
+      <c r="AP16" s="22"/>
+      <c r="AQ16" s="22"/>
+      <c r="AR16" s="22"/>
+      <c r="AS16" s="22"/>
+      <c r="AT16" s="22"/>
+      <c r="AU16" s="22"/>
+      <c r="AV16" s="22"/>
+      <c r="AW16" s="22"/>
+      <c r="AX16" s="22"/>
+      <c r="AY16" s="22"/>
+      <c r="AZ16" s="22"/>
+      <c r="BA16" s="22"/>
+      <c r="BB16" s="22"/>
+      <c r="BC16" s="22"/>
+      <c r="BD16" s="22"/>
+      <c r="BE16" s="22"/>
+      <c r="BF16" s="22"/>
+      <c r="BG16" s="22"/>
+      <c r="BH16" s="22"/>
+      <c r="BI16" s="22"/>
+      <c r="BJ16" s="22"/>
+      <c r="BK16" s="22"/>
+      <c r="BL16" s="22"/>
+      <c r="BM16" s="22"/>
+      <c r="BN16" s="22"/>
+      <c r="BO16" s="22"/>
+      <c r="BP16" s="22"/>
+      <c r="BQ16" s="22"/>
+      <c r="BR16" s="22"/>
+      <c r="BS16" s="22"/>
+      <c r="BT16" s="22"/>
+      <c r="BU16" s="22"/>
+      <c r="BV16" s="22"/>
+      <c r="BW16" s="22"/>
+      <c r="BX16" s="22"/>
+      <c r="BY16" s="22"/>
+      <c r="BZ16" s="22"/>
+      <c r="CA16" s="22"/>
+      <c r="CB16" s="22"/>
+      <c r="CC16" s="22"/>
+      <c r="CD16" s="22"/>
+      <c r="CE16" s="22"/>
     </row>
     <row r="17" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="17"/>
       <c r="B17" s="41" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D17" s="43">
-        <v>45584</v>
+        <v>45576</v>
       </c>
       <c r="E17" s="43">
-        <v>45585</v>
+        <v>45578</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="14"/>
@@ -3369,21 +3677,21 @@
       <c r="R17" s="14"/>
       <c r="S17" s="27"/>
       <c r="T17" s="27"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="93"/>
+      <c r="Z17" s="94"/>
+      <c r="AA17" s="95"/>
       <c r="AB17" s="27"/>
       <c r="AC17" s="27"/>
       <c r="AD17" s="27"/>
       <c r="AE17" s="27"/>
       <c r="AF17" s="27"/>
       <c r="AG17" s="27"/>
-      <c r="AH17" s="101"/>
-      <c r="AI17" s="102"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
       <c r="AJ17" s="27"/>
       <c r="AK17" s="27"/>
       <c r="AL17" s="14"/>
@@ -3435,106 +3743,110 @@
     </row>
     <row r="18" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A18" s="17"/>
-      <c r="B18" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="12"/>
+      <c r="B18" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="43">
+        <v>45577</v>
+      </c>
+      <c r="E18" s="43">
+        <v>45578</v>
+      </c>
       <c r="F18" s="22"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
-      <c r="AK18" s="28"/>
-      <c r="AL18" s="28"/>
-      <c r="AM18" s="28"/>
-      <c r="AN18" s="28"/>
-      <c r="AO18" s="28"/>
-      <c r="AP18" s="28"/>
-      <c r="AQ18" s="28"/>
-      <c r="AR18" s="28"/>
-      <c r="AS18" s="28"/>
-      <c r="AT18" s="28"/>
-      <c r="AU18" s="28"/>
-      <c r="AV18" s="28"/>
-      <c r="AW18" s="28"/>
-      <c r="AX18" s="28"/>
-      <c r="AY18" s="28"/>
-      <c r="AZ18" s="28"/>
-      <c r="BA18" s="28"/>
-      <c r="BB18" s="28"/>
-      <c r="BC18" s="28"/>
-      <c r="BD18" s="28"/>
-      <c r="BE18" s="28"/>
-      <c r="BF18" s="28"/>
-      <c r="BG18" s="28"/>
-      <c r="BH18" s="28"/>
-      <c r="BI18" s="28"/>
-      <c r="BJ18" s="28"/>
-      <c r="BK18" s="28"/>
-      <c r="BL18" s="28"/>
-      <c r="BM18" s="28"/>
-      <c r="BN18" s="28"/>
-      <c r="BO18" s="28"/>
-      <c r="BP18" s="28"/>
-      <c r="BQ18" s="28"/>
-      <c r="BR18" s="28"/>
-      <c r="BS18" s="28"/>
-      <c r="BT18" s="28"/>
-      <c r="BU18" s="28"/>
-      <c r="BV18" s="28"/>
-      <c r="BW18" s="28"/>
-      <c r="BX18" s="28"/>
-      <c r="BY18" s="28"/>
-      <c r="BZ18" s="28"/>
-      <c r="CA18" s="28"/>
-      <c r="CB18" s="28"/>
-      <c r="CC18" s="28"/>
-      <c r="CD18" s="28"/>
-      <c r="CE18" s="28"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="91"/>
+      <c r="AA18" s="92"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="27"/>
+      <c r="AO18" s="27"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="14"/>
+      <c r="AS18" s="14"/>
+      <c r="AT18" s="14"/>
+      <c r="AU18" s="27"/>
+      <c r="AV18" s="27"/>
+      <c r="AW18" s="14"/>
+      <c r="AX18" s="14"/>
+      <c r="AY18" s="14"/>
+      <c r="AZ18" s="14"/>
+      <c r="BA18" s="14"/>
+      <c r="BB18" s="27"/>
+      <c r="BC18" s="27"/>
+      <c r="BD18" s="14"/>
+      <c r="BE18" s="14"/>
+      <c r="BF18" s="14"/>
+      <c r="BG18" s="14"/>
+      <c r="BH18" s="14"/>
+      <c r="BI18" s="27"/>
+      <c r="BJ18" s="27"/>
+      <c r="BK18" s="14"/>
+      <c r="BL18" s="14"/>
+      <c r="BM18" s="14"/>
+      <c r="BN18" s="14"/>
+      <c r="BO18" s="14"/>
+      <c r="BP18" s="27"/>
+      <c r="BQ18" s="27"/>
+      <c r="BR18" s="14"/>
+      <c r="BS18" s="14"/>
+      <c r="BT18" s="14"/>
+      <c r="BU18" s="14"/>
+      <c r="BV18" s="14"/>
+      <c r="BW18" s="27"/>
+      <c r="BX18" s="27"/>
+      <c r="BY18" s="14"/>
+      <c r="BZ18" s="14"/>
+      <c r="CA18" s="14"/>
+      <c r="CB18" s="14"/>
+      <c r="CC18" s="14"/>
+      <c r="CD18" s="27"/>
+      <c r="CE18" s="27"/>
     </row>
     <row r="19" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="17">
-        <v>1</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="49">
-        <v>45599</v>
-      </c>
-      <c r="E19" s="49">
-        <v>45606</v>
+      <c r="A19" s="17"/>
+      <c r="B19" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="43">
+        <v>45582</v>
+      </c>
+      <c r="E19" s="43">
+        <v>45585</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="14"/>
@@ -3555,40 +3867,40 @@
       <c r="V19" s="14"/>
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
+      <c r="Y19" s="27"/>
       <c r="Z19" s="27"/>
       <c r="AA19" s="27"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="27"/>
-      <c r="AH19" s="27"/>
-      <c r="AI19" s="14"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="14"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="98"/>
+      <c r="AF19" s="99"/>
+      <c r="AG19" s="99"/>
+      <c r="AH19" s="100"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="27"/>
       <c r="AL19" s="14"/>
       <c r="AM19" s="14"/>
-      <c r="AN19" s="14"/>
+      <c r="AN19" s="27"/>
       <c r="AO19" s="27"/>
       <c r="AP19" s="14"/>
       <c r="AQ19" s="14"/>
-      <c r="AR19" s="27"/>
+      <c r="AR19" s="14"/>
       <c r="AS19" s="14"/>
-      <c r="AT19" s="27"/>
+      <c r="AT19" s="14"/>
       <c r="AU19" s="27"/>
-      <c r="AV19" s="90"/>
-      <c r="AW19" s="91"/>
-      <c r="AX19" s="91"/>
-      <c r="AY19" s="91"/>
-      <c r="AZ19" s="91"/>
-      <c r="BA19" s="91"/>
-      <c r="BB19" s="91"/>
-      <c r="BC19" s="92"/>
-      <c r="BD19" s="27"/>
-      <c r="BE19" s="27"/>
-      <c r="BF19" s="27"/>
+      <c r="AV19" s="27"/>
+      <c r="AW19" s="14"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="14"/>
+      <c r="AZ19" s="14"/>
+      <c r="BA19" s="14"/>
+      <c r="BB19" s="27"/>
+      <c r="BC19" s="27"/>
+      <c r="BD19" s="14"/>
+      <c r="BE19" s="14"/>
+      <c r="BF19" s="14"/>
       <c r="BG19" s="14"/>
       <c r="BH19" s="14"/>
       <c r="BI19" s="27"/>
@@ -3617,17 +3929,17 @@
     </row>
     <row r="20" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A20" s="17"/>
-      <c r="B20" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="49">
-        <v>45596</v>
-      </c>
-      <c r="E20" s="49">
-        <v>45599</v>
+      <c r="B20" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="43">
+        <v>45582</v>
+      </c>
+      <c r="E20" s="43">
+        <v>45585</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="14"/>
@@ -3648,40 +3960,40 @@
       <c r="V20" s="14"/>
       <c r="W20" s="14"/>
       <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
+      <c r="Y20" s="27"/>
       <c r="Z20" s="27"/>
       <c r="AA20" s="27"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="27"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="82"/>
+      <c r="AF20" s="83"/>
+      <c r="AG20" s="83"/>
+      <c r="AH20" s="84"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
       <c r="AK20" s="27"/>
       <c r="AL20" s="14"/>
-      <c r="AM20" s="27"/>
-      <c r="AN20" s="14"/>
-      <c r="AO20" s="14"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="27"/>
       <c r="AP20" s="14"/>
       <c r="AQ20" s="14"/>
       <c r="AR20" s="14"/>
-      <c r="AS20" s="98"/>
-      <c r="AT20" s="99"/>
-      <c r="AU20" s="99"/>
-      <c r="AV20" s="100"/>
-      <c r="AW20" s="27"/>
-      <c r="AX20" s="27"/>
-      <c r="AY20" s="27"/>
-      <c r="AZ20" s="27"/>
-      <c r="BA20" s="27"/>
+      <c r="AS20" s="14"/>
+      <c r="AT20" s="14"/>
+      <c r="AU20" s="27"/>
+      <c r="AV20" s="27"/>
+      <c r="AW20" s="14"/>
+      <c r="AX20" s="14"/>
+      <c r="AY20" s="14"/>
+      <c r="AZ20" s="14"/>
+      <c r="BA20" s="14"/>
       <c r="BB20" s="27"/>
       <c r="BC20" s="27"/>
-      <c r="BD20" s="27"/>
-      <c r="BE20" s="27"/>
-      <c r="BF20" s="27"/>
+      <c r="BD20" s="14"/>
+      <c r="BE20" s="14"/>
+      <c r="BF20" s="14"/>
       <c r="BG20" s="14"/>
       <c r="BH20" s="14"/>
       <c r="BI20" s="27"/>
@@ -3710,17 +4022,17 @@
     </row>
     <row r="21" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A21" s="17"/>
-      <c r="B21" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="49">
-        <v>45594</v>
-      </c>
-      <c r="E21" s="49">
-        <v>45605</v>
+      <c r="B21" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="43">
+        <v>45582</v>
+      </c>
+      <c r="E21" s="43">
+        <v>45585</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="14"/>
@@ -3738,43 +4050,43 @@
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
       <c r="Z21" s="27"/>
       <c r="AA21" s="27"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="85"/>
+      <c r="AF21" s="86"/>
+      <c r="AG21" s="86"/>
+      <c r="AH21" s="87"/>
       <c r="AI21" s="14"/>
-      <c r="AJ21" s="14"/>
+      <c r="AJ21" s="27"/>
       <c r="AK21" s="27"/>
       <c r="AL21" s="14"/>
       <c r="AM21" s="14"/>
-      <c r="AN21" s="14"/>
-      <c r="AO21" s="14"/>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="27"/>
       <c r="AP21" s="14"/>
-      <c r="AQ21" s="96"/>
-      <c r="AR21" s="106"/>
-      <c r="AS21" s="106"/>
-      <c r="AT21" s="106"/>
-      <c r="AU21" s="106"/>
-      <c r="AV21" s="106"/>
-      <c r="AW21" s="106"/>
-      <c r="AX21" s="106"/>
-      <c r="AY21" s="106"/>
-      <c r="AZ21" s="106"/>
-      <c r="BA21" s="106"/>
-      <c r="BB21" s="97"/>
+      <c r="AQ21" s="14"/>
+      <c r="AR21" s="14"/>
+      <c r="AS21" s="14"/>
+      <c r="AT21" s="14"/>
+      <c r="AU21" s="27"/>
+      <c r="AV21" s="27"/>
+      <c r="AW21" s="14"/>
+      <c r="AX21" s="14"/>
+      <c r="AY21" s="14"/>
+      <c r="AZ21" s="14"/>
+      <c r="BA21" s="14"/>
+      <c r="BB21" s="27"/>
       <c r="BC21" s="27"/>
-      <c r="BD21" s="27"/>
-      <c r="BE21" s="27"/>
-      <c r="BF21" s="27"/>
+      <c r="BD21" s="14"/>
+      <c r="BE21" s="14"/>
+      <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
       <c r="BH21" s="14"/>
       <c r="BI21" s="27"/>
@@ -3803,17 +4115,17 @@
     </row>
     <row r="22" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A22" s="17"/>
-      <c r="B22" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="48" t="s">
+      <c r="B22" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="49">
-        <v>45597</v>
-      </c>
-      <c r="E22" s="49">
-        <v>45604</v>
+      <c r="D22" s="43">
+        <v>45583</v>
+      </c>
+      <c r="E22" s="43">
+        <v>45586</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="14"/>
@@ -3834,40 +4146,40 @@
       <c r="V22" s="14"/>
       <c r="W22" s="14"/>
       <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
+      <c r="Y22" s="27"/>
       <c r="Z22" s="27"/>
       <c r="AA22" s="27"/>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="14"/>
-      <c r="AJ22" s="14"/>
-      <c r="AK22" s="14"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="88"/>
+      <c r="AF22" s="89"/>
+      <c r="AG22" s="89"/>
+      <c r="AH22" s="89"/>
+      <c r="AI22" s="90"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
       <c r="AL22" s="14"/>
       <c r="AM22" s="14"/>
-      <c r="AN22" s="14"/>
-      <c r="AO22" s="14"/>
+      <c r="AN22" s="27"/>
+      <c r="AO22" s="27"/>
       <c r="AP22" s="14"/>
       <c r="AQ22" s="14"/>
       <c r="AR22" s="14"/>
       <c r="AS22" s="14"/>
-      <c r="AT22" s="98"/>
-      <c r="AU22" s="99"/>
-      <c r="AV22" s="99"/>
-      <c r="AW22" s="99"/>
-      <c r="AX22" s="99"/>
-      <c r="AY22" s="99"/>
-      <c r="AZ22" s="99"/>
-      <c r="BA22" s="100"/>
+      <c r="AT22" s="14"/>
+      <c r="AU22" s="27"/>
+      <c r="AV22" s="27"/>
+      <c r="AW22" s="14"/>
+      <c r="AX22" s="14"/>
+      <c r="AY22" s="14"/>
+      <c r="AZ22" s="14"/>
+      <c r="BA22" s="14"/>
       <c r="BB22" s="27"/>
       <c r="BC22" s="27"/>
-      <c r="BD22" s="27"/>
-      <c r="BE22" s="27"/>
-      <c r="BF22" s="27"/>
+      <c r="BD22" s="14"/>
+      <c r="BE22" s="14"/>
+      <c r="BF22" s="14"/>
       <c r="BG22" s="14"/>
       <c r="BH22" s="14"/>
       <c r="BI22" s="27"/>
@@ -3896,17 +4208,17 @@
     </row>
     <row r="23" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="17"/>
-      <c r="B23" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="49">
-        <v>45598</v>
-      </c>
-      <c r="E23" s="49">
-        <v>45605</v>
+      <c r="B23" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="43">
+        <v>45584</v>
+      </c>
+      <c r="E23" s="43">
+        <v>45585</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="14"/>
@@ -3927,40 +4239,40 @@
       <c r="V23" s="14"/>
       <c r="W23" s="14"/>
       <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
+      <c r="Y23" s="27"/>
       <c r="Z23" s="27"/>
       <c r="AA23" s="27"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="14"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
       <c r="AG23" s="27"/>
-      <c r="AH23" s="27"/>
-      <c r="AI23" s="14"/>
-      <c r="AJ23" s="14"/>
-      <c r="AK23" s="14"/>
+      <c r="AH23" s="96"/>
+      <c r="AI23" s="97"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
       <c r="AL23" s="14"/>
       <c r="AM23" s="14"/>
-      <c r="AN23" s="14"/>
-      <c r="AO23" s="14"/>
+      <c r="AN23" s="27"/>
+      <c r="AO23" s="27"/>
       <c r="AP23" s="14"/>
       <c r="AQ23" s="14"/>
       <c r="AR23" s="14"/>
       <c r="AS23" s="14"/>
-      <c r="AT23" s="27"/>
-      <c r="AU23" s="84"/>
-      <c r="AV23" s="85"/>
-      <c r="AW23" s="85"/>
-      <c r="AX23" s="85"/>
-      <c r="AY23" s="85"/>
-      <c r="AZ23" s="85"/>
-      <c r="BA23" s="85"/>
-      <c r="BB23" s="86"/>
+      <c r="AT23" s="14"/>
+      <c r="AU23" s="27"/>
+      <c r="AV23" s="27"/>
+      <c r="AW23" s="14"/>
+      <c r="AX23" s="14"/>
+      <c r="AY23" s="14"/>
+      <c r="AZ23" s="14"/>
+      <c r="BA23" s="14"/>
+      <c r="BB23" s="27"/>
       <c r="BC23" s="27"/>
-      <c r="BD23" s="27"/>
-      <c r="BE23" s="27"/>
-      <c r="BF23" s="27"/>
+      <c r="BD23" s="14"/>
+      <c r="BE23" s="14"/>
+      <c r="BF23" s="14"/>
       <c r="BG23" s="14"/>
       <c r="BH23" s="14"/>
       <c r="BI23" s="27"/>
@@ -3989,110 +4301,106 @@
     </row>
     <row r="24" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="17"/>
-      <c r="B24" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="49">
-        <v>45596</v>
-      </c>
-      <c r="E24" s="49">
-        <v>45605</v>
-      </c>
+      <c r="B24" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="22"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="14"/>
-      <c r="AD24" s="14"/>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="14"/>
-      <c r="AG24" s="27"/>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="14"/>
-      <c r="AJ24" s="14"/>
-      <c r="AK24" s="14"/>
-      <c r="AL24" s="14"/>
-      <c r="AM24" s="14"/>
-      <c r="AN24" s="14"/>
-      <c r="AO24" s="14"/>
-      <c r="AP24" s="14"/>
-      <c r="AQ24" s="27"/>
-      <c r="AR24" s="14"/>
-      <c r="AS24" s="87"/>
-      <c r="AT24" s="88"/>
-      <c r="AU24" s="88"/>
-      <c r="AV24" s="88"/>
-      <c r="AW24" s="88"/>
-      <c r="AX24" s="88"/>
-      <c r="AY24" s="88"/>
-      <c r="AZ24" s="88"/>
-      <c r="BA24" s="88"/>
-      <c r="BB24" s="89"/>
-      <c r="BC24" s="27"/>
-      <c r="BD24" s="27"/>
-      <c r="BE24" s="27"/>
-      <c r="BF24" s="27"/>
-      <c r="BG24" s="14"/>
-      <c r="BH24" s="14"/>
-      <c r="BI24" s="27"/>
-      <c r="BJ24" s="27"/>
-      <c r="BK24" s="14"/>
-      <c r="BL24" s="14"/>
-      <c r="BM24" s="14"/>
-      <c r="BN24" s="14"/>
-      <c r="BO24" s="14"/>
-      <c r="BP24" s="27"/>
-      <c r="BQ24" s="27"/>
-      <c r="BR24" s="14"/>
-      <c r="BS24" s="14"/>
-      <c r="BT24" s="14"/>
-      <c r="BU24" s="14"/>
-      <c r="BV24" s="14"/>
-      <c r="BW24" s="27"/>
-      <c r="BX24" s="27"/>
-      <c r="BY24" s="14"/>
-      <c r="BZ24" s="14"/>
-      <c r="CA24" s="14"/>
-      <c r="CB24" s="14"/>
-      <c r="CC24" s="14"/>
-      <c r="CD24" s="27"/>
-      <c r="CE24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="28"/>
+      <c r="AL24" s="28"/>
+      <c r="AM24" s="28"/>
+      <c r="AN24" s="28"/>
+      <c r="AO24" s="28"/>
+      <c r="AP24" s="28"/>
+      <c r="AQ24" s="28"/>
+      <c r="AR24" s="28"/>
+      <c r="AS24" s="28"/>
+      <c r="AT24" s="28"/>
+      <c r="AU24" s="28"/>
+      <c r="AV24" s="28"/>
+      <c r="AW24" s="28"/>
+      <c r="AX24" s="28"/>
+      <c r="AY24" s="28"/>
+      <c r="AZ24" s="28"/>
+      <c r="BA24" s="28"/>
+      <c r="BB24" s="28"/>
+      <c r="BC24" s="28"/>
+      <c r="BD24" s="28"/>
+      <c r="BE24" s="28"/>
+      <c r="BF24" s="28"/>
+      <c r="BG24" s="28"/>
+      <c r="BH24" s="28"/>
+      <c r="BI24" s="28"/>
+      <c r="BJ24" s="28"/>
+      <c r="BK24" s="28"/>
+      <c r="BL24" s="28"/>
+      <c r="BM24" s="28"/>
+      <c r="BN24" s="28"/>
+      <c r="BO24" s="28"/>
+      <c r="BP24" s="28"/>
+      <c r="BQ24" s="28"/>
+      <c r="BR24" s="28"/>
+      <c r="BS24" s="28"/>
+      <c r="BT24" s="28"/>
+      <c r="BU24" s="28"/>
+      <c r="BV24" s="28"/>
+      <c r="BW24" s="28"/>
+      <c r="BX24" s="28"/>
+      <c r="BY24" s="28"/>
+      <c r="BZ24" s="28"/>
+      <c r="CA24" s="28"/>
+      <c r="CB24" s="28"/>
+      <c r="CC24" s="28"/>
+      <c r="CD24" s="28"/>
+      <c r="CE24" s="28"/>
     </row>
     <row r="25" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="17"/>
-      <c r="B25" s="74" t="s">
-        <v>39</v>
+      <c r="A25" s="17">
+        <v>1</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D25" s="49">
-        <v>45596</v>
+        <v>45599</v>
       </c>
       <c r="E25" s="49">
-        <v>45605</v>
+        <v>45606</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="14"/>
@@ -4129,21 +4437,21 @@
       <c r="AL25" s="14"/>
       <c r="AM25" s="14"/>
       <c r="AN25" s="14"/>
-      <c r="AO25" s="14"/>
+      <c r="AO25" s="27"/>
       <c r="AP25" s="14"/>
       <c r="AQ25" s="14"/>
-      <c r="AR25" s="14"/>
+      <c r="AR25" s="27"/>
       <c r="AS25" s="14"/>
-      <c r="AT25" s="103"/>
-      <c r="AU25" s="104"/>
-      <c r="AV25" s="104"/>
-      <c r="AW25" s="104"/>
-      <c r="AX25" s="104"/>
-      <c r="AY25" s="104"/>
-      <c r="AZ25" s="104"/>
-      <c r="BA25" s="104"/>
-      <c r="BB25" s="105"/>
-      <c r="BC25" s="27"/>
+      <c r="AT25" s="27"/>
+      <c r="AU25" s="27"/>
+      <c r="AV25" s="88"/>
+      <c r="AW25" s="89"/>
+      <c r="AX25" s="89"/>
+      <c r="AY25" s="89"/>
+      <c r="AZ25" s="89"/>
+      <c r="BA25" s="89"/>
+      <c r="BB25" s="89"/>
+      <c r="BC25" s="90"/>
       <c r="BD25" s="27"/>
       <c r="BE25" s="27"/>
       <c r="BF25" s="27"/>
@@ -4175,17 +4483,17 @@
     </row>
     <row r="26" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A26" s="17"/>
-      <c r="B26" s="74" t="s">
-        <v>40</v>
+      <c r="B26" s="47" t="s">
+        <v>32</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D26" s="49">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="E26" s="49">
-        <v>45606</v>
+        <v>45599</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="14"/>
@@ -4218,26 +4526,26 @@
       <c r="AH26" s="27"/>
       <c r="AI26" s="14"/>
       <c r="AJ26" s="14"/>
-      <c r="AK26" s="14"/>
+      <c r="AK26" s="27"/>
       <c r="AL26" s="14"/>
-      <c r="AM26" s="14"/>
+      <c r="AM26" s="27"/>
       <c r="AN26" s="14"/>
       <c r="AO26" s="14"/>
       <c r="AP26" s="14"/>
       <c r="AQ26" s="14"/>
-      <c r="AR26" s="27"/>
-      <c r="AS26" s="14"/>
-      <c r="AT26" s="90"/>
-      <c r="AU26" s="91"/>
-      <c r="AV26" s="91"/>
-      <c r="AW26" s="91"/>
-      <c r="AX26" s="91"/>
-      <c r="AY26" s="91"/>
-      <c r="AZ26" s="91"/>
-      <c r="BA26" s="91"/>
-      <c r="BB26" s="91"/>
-      <c r="BC26" s="91"/>
-      <c r="BD26" s="92"/>
+      <c r="AR26" s="14"/>
+      <c r="AS26" s="93"/>
+      <c r="AT26" s="94"/>
+      <c r="AU26" s="94"/>
+      <c r="AV26" s="95"/>
+      <c r="AW26" s="27"/>
+      <c r="AX26" s="27"/>
+      <c r="AY26" s="27"/>
+      <c r="AZ26" s="27"/>
+      <c r="BA26" s="27"/>
+      <c r="BB26" s="27"/>
+      <c r="BC26" s="27"/>
+      <c r="BD26" s="27"/>
       <c r="BE26" s="27"/>
       <c r="BF26" s="27"/>
       <c r="BG26" s="14"/>
@@ -4268,14 +4576,14 @@
     </row>
     <row r="27" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A27" s="17"/>
-      <c r="B27" s="74" t="s">
-        <v>41</v>
+      <c r="B27" s="71" t="s">
+        <v>33</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" s="49">
-        <v>45596</v>
+        <v>45594</v>
       </c>
       <c r="E27" s="49">
         <v>45605</v>
@@ -4311,24 +4619,24 @@
       <c r="AH27" s="27"/>
       <c r="AI27" s="14"/>
       <c r="AJ27" s="14"/>
-      <c r="AK27" s="14"/>
+      <c r="AK27" s="27"/>
       <c r="AL27" s="14"/>
       <c r="AM27" s="14"/>
       <c r="AN27" s="14"/>
       <c r="AO27" s="14"/>
       <c r="AP27" s="14"/>
-      <c r="AQ27" s="14"/>
-      <c r="AR27" s="14"/>
-      <c r="AS27" s="14"/>
+      <c r="AQ27" s="91"/>
+      <c r="AR27" s="101"/>
+      <c r="AS27" s="101"/>
       <c r="AT27" s="101"/>
-      <c r="AU27" s="107"/>
-      <c r="AV27" s="107"/>
-      <c r="AW27" s="107"/>
-      <c r="AX27" s="107"/>
-      <c r="AY27" s="107"/>
-      <c r="AZ27" s="107"/>
-      <c r="BA27" s="107"/>
-      <c r="BB27" s="102"/>
+      <c r="AU27" s="101"/>
+      <c r="AV27" s="101"/>
+      <c r="AW27" s="101"/>
+      <c r="AX27" s="101"/>
+      <c r="AY27" s="101"/>
+      <c r="AZ27" s="101"/>
+      <c r="BA27" s="101"/>
+      <c r="BB27" s="92"/>
       <c r="BC27" s="27"/>
       <c r="BD27" s="27"/>
       <c r="BE27" s="27"/>
@@ -4361,17 +4669,17 @@
     </row>
     <row r="28" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A28" s="17"/>
-      <c r="B28" s="74" t="s">
-        <v>42</v>
+      <c r="B28" s="47" t="s">
+        <v>34</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D28" s="49">
-        <v>45602</v>
+        <v>45597</v>
       </c>
       <c r="E28" s="49">
-        <v>45605</v>
+        <v>45604</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="14"/>
@@ -4409,19 +4717,19 @@
       <c r="AM28" s="14"/>
       <c r="AN28" s="14"/>
       <c r="AO28" s="14"/>
-      <c r="AP28" s="27"/>
+      <c r="AP28" s="14"/>
       <c r="AQ28" s="14"/>
       <c r="AR28" s="14"/>
-      <c r="AS28" s="27"/>
-      <c r="AT28" s="27"/>
-      <c r="AU28" s="27"/>
-      <c r="AV28" s="27"/>
-      <c r="AW28" s="27"/>
-      <c r="AX28" s="27"/>
-      <c r="AY28" s="84"/>
-      <c r="AZ28" s="85"/>
-      <c r="BA28" s="85"/>
-      <c r="BB28" s="86"/>
+      <c r="AS28" s="14"/>
+      <c r="AT28" s="93"/>
+      <c r="AU28" s="94"/>
+      <c r="AV28" s="94"/>
+      <c r="AW28" s="94"/>
+      <c r="AX28" s="94"/>
+      <c r="AY28" s="94"/>
+      <c r="AZ28" s="94"/>
+      <c r="BA28" s="95"/>
+      <c r="BB28" s="27"/>
       <c r="BC28" s="27"/>
       <c r="BD28" s="27"/>
       <c r="BE28" s="27"/>
@@ -4454,14 +4762,14 @@
     </row>
     <row r="29" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A29" s="17"/>
-      <c r="B29" s="74" t="s">
-        <v>43</v>
+      <c r="B29" s="47" t="s">
+        <v>35</v>
       </c>
       <c r="C29" s="48" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="49">
-        <v>45596</v>
+        <v>45598</v>
       </c>
       <c r="E29" s="49">
         <v>45605</v>
@@ -4502,19 +4810,19 @@
       <c r="AM29" s="14"/>
       <c r="AN29" s="14"/>
       <c r="AO29" s="14"/>
-      <c r="AP29" s="27"/>
+      <c r="AP29" s="14"/>
       <c r="AQ29" s="14"/>
       <c r="AR29" s="14"/>
       <c r="AS29" s="14"/>
-      <c r="AT29" s="103"/>
-      <c r="AU29" s="104"/>
-      <c r="AV29" s="104"/>
-      <c r="AW29" s="104"/>
-      <c r="AX29" s="104"/>
-      <c r="AY29" s="104"/>
-      <c r="AZ29" s="104"/>
-      <c r="BA29" s="104"/>
-      <c r="BB29" s="105"/>
+      <c r="AT29" s="27"/>
+      <c r="AU29" s="82"/>
+      <c r="AV29" s="83"/>
+      <c r="AW29" s="83"/>
+      <c r="AX29" s="83"/>
+      <c r="AY29" s="83"/>
+      <c r="AZ29" s="83"/>
+      <c r="BA29" s="83"/>
+      <c r="BB29" s="84"/>
       <c r="BC29" s="27"/>
       <c r="BD29" s="27"/>
       <c r="BE29" s="27"/>
@@ -4547,14 +4855,14 @@
     </row>
     <row r="30" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A30" s="17"/>
-      <c r="B30" s="74" t="s">
-        <v>44</v>
+      <c r="B30" s="47" t="s">
+        <v>36</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D30" s="49">
-        <v>45594</v>
+        <v>45596</v>
       </c>
       <c r="E30" s="49">
         <v>45605</v>
@@ -4595,20 +4903,20 @@
       <c r="AM30" s="14"/>
       <c r="AN30" s="14"/>
       <c r="AO30" s="14"/>
-      <c r="AP30" s="27"/>
+      <c r="AP30" s="14"/>
       <c r="AQ30" s="27"/>
-      <c r="AR30" s="101"/>
-      <c r="AS30" s="107"/>
-      <c r="AT30" s="107"/>
-      <c r="AU30" s="107"/>
-      <c r="AV30" s="107"/>
-      <c r="AW30" s="107"/>
-      <c r="AX30" s="107"/>
-      <c r="AY30" s="107"/>
-      <c r="AZ30" s="107"/>
-      <c r="BA30" s="107"/>
-      <c r="BB30" s="102"/>
-      <c r="BC30" s="14"/>
+      <c r="AR30" s="14"/>
+      <c r="AS30" s="85"/>
+      <c r="AT30" s="86"/>
+      <c r="AU30" s="86"/>
+      <c r="AV30" s="86"/>
+      <c r="AW30" s="86"/>
+      <c r="AX30" s="86"/>
+      <c r="AY30" s="86"/>
+      <c r="AZ30" s="86"/>
+      <c r="BA30" s="86"/>
+      <c r="BB30" s="87"/>
+      <c r="BC30" s="27"/>
       <c r="BD30" s="27"/>
       <c r="BE30" s="27"/>
       <c r="BF30" s="27"/>
@@ -4640,14 +4948,14 @@
     </row>
     <row r="31" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="74" t="s">
-        <v>45</v>
+      <c r="B31" s="72" t="s">
+        <v>37</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D31" s="49">
-        <v>45603</v>
+        <v>45596</v>
       </c>
       <c r="E31" s="49">
         <v>45605</v>
@@ -4692,15 +5000,15 @@
       <c r="AQ31" s="14"/>
       <c r="AR31" s="14"/>
       <c r="AS31" s="14"/>
-      <c r="AT31" s="27"/>
-      <c r="AU31" s="27"/>
-      <c r="AV31" s="27"/>
-      <c r="AW31" s="27"/>
-      <c r="AX31" s="27"/>
-      <c r="AY31" s="27"/>
-      <c r="AZ31" s="84"/>
-      <c r="BA31" s="85"/>
-      <c r="BB31" s="86"/>
+      <c r="AT31" s="98"/>
+      <c r="AU31" s="99"/>
+      <c r="AV31" s="99"/>
+      <c r="AW31" s="99"/>
+      <c r="AX31" s="99"/>
+      <c r="AY31" s="99"/>
+      <c r="AZ31" s="99"/>
+      <c r="BA31" s="99"/>
+      <c r="BB31" s="100"/>
       <c r="BC31" s="27"/>
       <c r="BD31" s="27"/>
       <c r="BE31" s="27"/>
@@ -4733,17 +5041,17 @@
     </row>
     <row r="32" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A32" s="17"/>
-      <c r="B32" s="74" t="s">
-        <v>46</v>
+      <c r="B32" s="72" t="s">
+        <v>38</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D32" s="49">
-        <v>45603</v>
+        <v>45597</v>
       </c>
       <c r="E32" s="49">
-        <v>45605</v>
+        <v>45606</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="14"/>
@@ -4783,19 +5091,19 @@
       <c r="AO32" s="14"/>
       <c r="AP32" s="14"/>
       <c r="AQ32" s="14"/>
-      <c r="AR32" s="14"/>
+      <c r="AR32" s="27"/>
       <c r="AS32" s="14"/>
-      <c r="AT32" s="27"/>
-      <c r="AU32" s="27"/>
-      <c r="AV32" s="27"/>
-      <c r="AW32" s="27"/>
-      <c r="AX32" s="27"/>
-      <c r="AY32" s="27"/>
-      <c r="AZ32" s="87"/>
-      <c r="BA32" s="88"/>
+      <c r="AT32" s="88"/>
+      <c r="AU32" s="89"/>
+      <c r="AV32" s="89"/>
+      <c r="AW32" s="89"/>
+      <c r="AX32" s="89"/>
+      <c r="AY32" s="89"/>
+      <c r="AZ32" s="89"/>
+      <c r="BA32" s="89"/>
       <c r="BB32" s="89"/>
-      <c r="BC32" s="27"/>
-      <c r="BD32" s="27"/>
+      <c r="BC32" s="89"/>
+      <c r="BD32" s="90"/>
       <c r="BE32" s="27"/>
       <c r="BF32" s="27"/>
       <c r="BG32" s="14"/>
@@ -4826,14 +5134,14 @@
     </row>
     <row r="33" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A33" s="17"/>
-      <c r="B33" s="74" t="s">
-        <v>47</v>
+      <c r="B33" s="72" t="s">
+        <v>39</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D33" s="49">
-        <v>45603</v>
+        <v>45596</v>
       </c>
       <c r="E33" s="49">
         <v>45605</v>
@@ -4878,15 +5186,15 @@
       <c r="AQ33" s="14"/>
       <c r="AR33" s="14"/>
       <c r="AS33" s="14"/>
-      <c r="AT33" s="27"/>
-      <c r="AU33" s="27"/>
-      <c r="AV33" s="27"/>
-      <c r="AW33" s="27"/>
-      <c r="AX33" s="27"/>
-      <c r="AY33" s="27"/>
-      <c r="AZ33" s="87"/>
-      <c r="BA33" s="88"/>
-      <c r="BB33" s="89"/>
+      <c r="AT33" s="96"/>
+      <c r="AU33" s="102"/>
+      <c r="AV33" s="102"/>
+      <c r="AW33" s="102"/>
+      <c r="AX33" s="102"/>
+      <c r="AY33" s="102"/>
+      <c r="AZ33" s="102"/>
+      <c r="BA33" s="102"/>
+      <c r="BB33" s="97"/>
       <c r="BC33" s="27"/>
       <c r="BD33" s="27"/>
       <c r="BE33" s="27"/>
@@ -4919,17 +5227,17 @@
     </row>
     <row r="34" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A34" s="17"/>
-      <c r="B34" s="74" t="s">
-        <v>48</v>
+      <c r="B34" s="72" t="s">
+        <v>40</v>
       </c>
       <c r="C34" s="48" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="49">
-        <v>45604</v>
+        <v>45602</v>
       </c>
       <c r="E34" s="49">
-        <v>45606</v>
+        <v>45605</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="14"/>
@@ -4967,20 +5275,20 @@
       <c r="AM34" s="14"/>
       <c r="AN34" s="14"/>
       <c r="AO34" s="14"/>
-      <c r="AP34" s="14"/>
+      <c r="AP34" s="27"/>
       <c r="AQ34" s="14"/>
       <c r="AR34" s="14"/>
-      <c r="AS34" s="14"/>
+      <c r="AS34" s="27"/>
       <c r="AT34" s="27"/>
       <c r="AU34" s="27"/>
       <c r="AV34" s="27"/>
       <c r="AW34" s="27"/>
       <c r="AX34" s="27"/>
-      <c r="AY34" s="27"/>
-      <c r="AZ34" s="27"/>
-      <c r="BA34" s="103"/>
-      <c r="BB34" s="104"/>
-      <c r="BC34" s="105"/>
+      <c r="AY34" s="82"/>
+      <c r="AZ34" s="83"/>
+      <c r="BA34" s="83"/>
+      <c r="BB34" s="84"/>
+      <c r="BC34" s="27"/>
       <c r="BD34" s="27"/>
       <c r="BE34" s="27"/>
       <c r="BF34" s="27"/>
@@ -5012,17 +5320,17 @@
     </row>
     <row r="35" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A35" s="17"/>
-      <c r="B35" s="74" t="s">
-        <v>49</v>
+      <c r="B35" s="72" t="s">
+        <v>41</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" s="49">
-        <v>45604</v>
+        <v>45596</v>
       </c>
       <c r="E35" s="49">
-        <v>45606</v>
+        <v>45605</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="14"/>
@@ -5060,20 +5368,20 @@
       <c r="AM35" s="14"/>
       <c r="AN35" s="14"/>
       <c r="AO35" s="14"/>
-      <c r="AP35" s="14"/>
+      <c r="AP35" s="27"/>
       <c r="AQ35" s="14"/>
       <c r="AR35" s="14"/>
       <c r="AS35" s="14"/>
-      <c r="AT35" s="27"/>
-      <c r="AU35" s="27"/>
-      <c r="AV35" s="27"/>
-      <c r="AW35" s="27"/>
-      <c r="AX35" s="27"/>
-      <c r="AY35" s="27"/>
-      <c r="AZ35" s="27"/>
-      <c r="BA35" s="103"/>
-      <c r="BB35" s="104"/>
-      <c r="BC35" s="105"/>
+      <c r="AT35" s="98"/>
+      <c r="AU35" s="99"/>
+      <c r="AV35" s="99"/>
+      <c r="AW35" s="99"/>
+      <c r="AX35" s="99"/>
+      <c r="AY35" s="99"/>
+      <c r="AZ35" s="99"/>
+      <c r="BA35" s="99"/>
+      <c r="BB35" s="100"/>
+      <c r="BC35" s="27"/>
       <c r="BD35" s="27"/>
       <c r="BE35" s="27"/>
       <c r="BF35" s="27"/>
@@ -5105,18 +5413,17 @@
     </row>
     <row r="36" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A36" s="17"/>
-      <c r="B36" s="74" t="s">
-        <v>50</v>
+      <c r="B36" s="72" t="s">
+        <v>42</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D36" s="49">
-        <v>45607</v>
+        <v>45594</v>
       </c>
       <c r="E36" s="49">
-        <f>D36+0</f>
-        <v>45607</v>
+        <v>45605</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="14"/>
@@ -5154,21 +5461,21 @@
       <c r="AM36" s="14"/>
       <c r="AN36" s="14"/>
       <c r="AO36" s="14"/>
-      <c r="AP36" s="14"/>
-      <c r="AQ36" s="14"/>
-      <c r="AR36" s="14"/>
-      <c r="AS36" s="14"/>
-      <c r="AT36" s="27"/>
-      <c r="AU36" s="27"/>
-      <c r="AV36" s="27"/>
-      <c r="AW36" s="27"/>
-      <c r="AX36" s="27"/>
-      <c r="AY36" s="27"/>
-      <c r="AZ36" s="27"/>
-      <c r="BA36" s="27"/>
-      <c r="BB36" s="27"/>
-      <c r="BC36" s="27"/>
-      <c r="BD36" s="71"/>
+      <c r="AP36" s="27"/>
+      <c r="AQ36" s="27"/>
+      <c r="AR36" s="96"/>
+      <c r="AS36" s="102"/>
+      <c r="AT36" s="102"/>
+      <c r="AU36" s="102"/>
+      <c r="AV36" s="102"/>
+      <c r="AW36" s="102"/>
+      <c r="AX36" s="102"/>
+      <c r="AY36" s="102"/>
+      <c r="AZ36" s="102"/>
+      <c r="BA36" s="102"/>
+      <c r="BB36" s="97"/>
+      <c r="BC36" s="14"/>
+      <c r="BD36" s="27"/>
       <c r="BE36" s="27"/>
       <c r="BF36" s="27"/>
       <c r="BG36" s="14"/>
@@ -5199,104 +5506,110 @@
     </row>
     <row r="37" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="17"/>
-      <c r="B37" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="13"/>
+      <c r="B37" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="49">
+        <v>45603</v>
+      </c>
+      <c r="E37" s="49">
+        <v>45605</v>
+      </c>
       <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="22"/>
-      <c r="AA37" s="22"/>
-      <c r="AB37" s="22"/>
-      <c r="AC37" s="22"/>
-      <c r="AD37" s="22"/>
-      <c r="AE37" s="22"/>
-      <c r="AF37" s="22"/>
-      <c r="AG37" s="22"/>
-      <c r="AH37" s="22"/>
-      <c r="AI37" s="22"/>
-      <c r="AJ37" s="22"/>
-      <c r="AK37" s="22"/>
-      <c r="AL37" s="22"/>
-      <c r="AM37" s="22"/>
-      <c r="AN37" s="22"/>
-      <c r="AO37" s="22"/>
-      <c r="AP37" s="22"/>
-      <c r="AQ37" s="22"/>
-      <c r="AR37" s="22"/>
-      <c r="AS37" s="22"/>
-      <c r="AT37" s="22"/>
-      <c r="AU37" s="22"/>
-      <c r="AV37" s="22"/>
-      <c r="AW37" s="22"/>
-      <c r="AX37" s="22"/>
-      <c r="AY37" s="22"/>
-      <c r="AZ37" s="22"/>
-      <c r="BA37" s="22"/>
-      <c r="BB37" s="22"/>
-      <c r="BC37" s="22"/>
-      <c r="BD37" s="22"/>
-      <c r="BE37" s="22"/>
-      <c r="BF37" s="22"/>
-      <c r="BG37" s="22"/>
-      <c r="BH37" s="22"/>
-      <c r="BI37" s="22"/>
-      <c r="BJ37" s="22"/>
-      <c r="BK37" s="22"/>
-      <c r="BL37" s="22"/>
-      <c r="BM37" s="22"/>
-      <c r="BN37" s="22"/>
-      <c r="BO37" s="22"/>
-      <c r="BP37" s="22"/>
-      <c r="BQ37" s="22"/>
-      <c r="BR37" s="22"/>
-      <c r="BS37" s="22"/>
-      <c r="BT37" s="22"/>
-      <c r="BU37" s="22"/>
-      <c r="BV37" s="22"/>
-      <c r="BW37" s="22"/>
-      <c r="BX37" s="22"/>
-      <c r="BY37" s="22"/>
-      <c r="BZ37" s="22"/>
-      <c r="CA37" s="22"/>
-      <c r="CB37" s="22"/>
-      <c r="CC37" s="22"/>
-      <c r="CD37" s="22"/>
-      <c r="CE37" s="22"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="14"/>
+      <c r="AG37" s="27"/>
+      <c r="AH37" s="27"/>
+      <c r="AI37" s="14"/>
+      <c r="AJ37" s="14"/>
+      <c r="AK37" s="14"/>
+      <c r="AL37" s="14"/>
+      <c r="AM37" s="14"/>
+      <c r="AN37" s="14"/>
+      <c r="AO37" s="14"/>
+      <c r="AP37" s="14"/>
+      <c r="AQ37" s="14"/>
+      <c r="AR37" s="14"/>
+      <c r="AS37" s="14"/>
+      <c r="AT37" s="27"/>
+      <c r="AU37" s="27"/>
+      <c r="AV37" s="27"/>
+      <c r="AW37" s="27"/>
+      <c r="AX37" s="27"/>
+      <c r="AY37" s="27"/>
+      <c r="AZ37" s="82"/>
+      <c r="BA37" s="83"/>
+      <c r="BB37" s="84"/>
+      <c r="BC37" s="27"/>
+      <c r="BD37" s="27"/>
+      <c r="BE37" s="27"/>
+      <c r="BF37" s="27"/>
+      <c r="BG37" s="14"/>
+      <c r="BH37" s="14"/>
+      <c r="BI37" s="27"/>
+      <c r="BJ37" s="27"/>
+      <c r="BK37" s="14"/>
+      <c r="BL37" s="14"/>
+      <c r="BM37" s="14"/>
+      <c r="BN37" s="14"/>
+      <c r="BO37" s="14"/>
+      <c r="BP37" s="27"/>
+      <c r="BQ37" s="27"/>
+      <c r="BR37" s="14"/>
+      <c r="BS37" s="14"/>
+      <c r="BT37" s="14"/>
+      <c r="BU37" s="14"/>
+      <c r="BV37" s="14"/>
+      <c r="BW37" s="27"/>
+      <c r="BX37" s="27"/>
+      <c r="BY37" s="14"/>
+      <c r="BZ37" s="14"/>
+      <c r="CA37" s="14"/>
+      <c r="CB37" s="14"/>
+      <c r="CC37" s="14"/>
+      <c r="CD37" s="27"/>
+      <c r="CE37" s="27"/>
     </row>
     <row r="38" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="17"/>
-      <c r="B38" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="55">
-        <v>45610</v>
-      </c>
-      <c r="E38" s="55">
-        <v>45614</v>
+      <c r="B38" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="49">
+        <v>45603</v>
+      </c>
+      <c r="E38" s="49">
+        <v>45605</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="14"/>
@@ -5332,34 +5645,34 @@
       <c r="AK38" s="14"/>
       <c r="AL38" s="14"/>
       <c r="AM38" s="14"/>
-      <c r="AN38" s="27"/>
-      <c r="AO38" s="27"/>
+      <c r="AN38" s="14"/>
+      <c r="AO38" s="14"/>
       <c r="AP38" s="14"/>
       <c r="AQ38" s="14"/>
       <c r="AR38" s="14"/>
       <c r="AS38" s="14"/>
-      <c r="AT38" s="14"/>
+      <c r="AT38" s="27"/>
       <c r="AU38" s="27"/>
       <c r="AV38" s="27"/>
-      <c r="AW38" s="14"/>
-      <c r="AX38" s="14"/>
-      <c r="AY38" s="14"/>
-      <c r="AZ38" s="14"/>
-      <c r="BA38" s="14"/>
-      <c r="BB38" s="27"/>
+      <c r="AW38" s="27"/>
+      <c r="AX38" s="27"/>
+      <c r="AY38" s="27"/>
+      <c r="AZ38" s="85"/>
+      <c r="BA38" s="86"/>
+      <c r="BB38" s="87"/>
       <c r="BC38" s="27"/>
-      <c r="BD38" s="14"/>
-      <c r="BE38" s="14"/>
-      <c r="BF38" s="14"/>
-      <c r="BG38" s="96"/>
-      <c r="BH38" s="106"/>
-      <c r="BI38" s="106"/>
-      <c r="BJ38" s="106"/>
-      <c r="BK38" s="97"/>
-      <c r="BL38" s="27"/>
-      <c r="BM38" s="27"/>
-      <c r="BN38" s="27"/>
-      <c r="BO38" s="27"/>
+      <c r="BD38" s="27"/>
+      <c r="BE38" s="27"/>
+      <c r="BF38" s="27"/>
+      <c r="BG38" s="14"/>
+      <c r="BH38" s="14"/>
+      <c r="BI38" s="27"/>
+      <c r="BJ38" s="27"/>
+      <c r="BK38" s="14"/>
+      <c r="BL38" s="14"/>
+      <c r="BM38" s="14"/>
+      <c r="BN38" s="14"/>
+      <c r="BO38" s="14"/>
       <c r="BP38" s="27"/>
       <c r="BQ38" s="27"/>
       <c r="BR38" s="14"/>
@@ -5369,7 +5682,7 @@
       <c r="BV38" s="14"/>
       <c r="BW38" s="27"/>
       <c r="BX38" s="27"/>
-      <c r="BY38" s="27"/>
+      <c r="BY38" s="14"/>
       <c r="BZ38" s="14"/>
       <c r="CA38" s="14"/>
       <c r="CB38" s="14"/>
@@ -5379,17 +5692,17 @@
     </row>
     <row r="39" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A39" s="17"/>
-      <c r="B39" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="55">
-        <v>45621</v>
-      </c>
-      <c r="E39" s="55">
-        <v>45626</v>
+      <c r="B39" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="49">
+        <v>45603</v>
+      </c>
+      <c r="E39" s="49">
+        <v>45605</v>
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="14"/>
@@ -5425,44 +5738,44 @@
       <c r="AK39" s="14"/>
       <c r="AL39" s="14"/>
       <c r="AM39" s="14"/>
-      <c r="AN39" s="27"/>
-      <c r="AO39" s="27"/>
+      <c r="AN39" s="14"/>
+      <c r="AO39" s="14"/>
       <c r="AP39" s="14"/>
       <c r="AQ39" s="14"/>
       <c r="AR39" s="14"/>
       <c r="AS39" s="14"/>
-      <c r="AT39" s="14"/>
+      <c r="AT39" s="27"/>
       <c r="AU39" s="27"/>
       <c r="AV39" s="27"/>
-      <c r="AW39" s="14"/>
-      <c r="AX39" s="14"/>
-      <c r="AY39" s="14"/>
-      <c r="AZ39" s="14"/>
-      <c r="BA39" s="14"/>
-      <c r="BB39" s="27"/>
+      <c r="AW39" s="27"/>
+      <c r="AX39" s="27"/>
+      <c r="AY39" s="27"/>
+      <c r="AZ39" s="85"/>
+      <c r="BA39" s="86"/>
+      <c r="BB39" s="87"/>
       <c r="BC39" s="27"/>
-      <c r="BD39" s="14"/>
-      <c r="BE39" s="14"/>
-      <c r="BF39" s="14"/>
+      <c r="BD39" s="27"/>
+      <c r="BE39" s="27"/>
+      <c r="BF39" s="27"/>
       <c r="BG39" s="14"/>
       <c r="BH39" s="14"/>
       <c r="BI39" s="27"/>
       <c r="BJ39" s="27"/>
-      <c r="BK39" s="27"/>
-      <c r="BL39" s="27"/>
-      <c r="BM39" s="27"/>
-      <c r="BN39" s="27"/>
-      <c r="BO39" s="27"/>
+      <c r="BK39" s="14"/>
+      <c r="BL39" s="14"/>
+      <c r="BM39" s="14"/>
+      <c r="BN39" s="14"/>
+      <c r="BO39" s="14"/>
       <c r="BP39" s="27"/>
       <c r="BQ39" s="27"/>
-      <c r="BR39" s="90"/>
-      <c r="BS39" s="91"/>
-      <c r="BT39" s="91"/>
-      <c r="BU39" s="91"/>
-      <c r="BV39" s="91"/>
-      <c r="BW39" s="92"/>
+      <c r="BR39" s="14"/>
+      <c r="BS39" s="14"/>
+      <c r="BT39" s="14"/>
+      <c r="BU39" s="14"/>
+      <c r="BV39" s="14"/>
+      <c r="BW39" s="27"/>
       <c r="BX39" s="27"/>
-      <c r="BY39" s="27"/>
+      <c r="BY39" s="14"/>
       <c r="BZ39" s="14"/>
       <c r="CA39" s="14"/>
       <c r="CB39" s="14"/>
@@ -5472,17 +5785,17 @@
     </row>
     <row r="40" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A40" s="17"/>
-      <c r="B40" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="55">
-        <v>45619</v>
-      </c>
-      <c r="E40" s="55">
-        <v>45625</v>
+      <c r="B40" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="49">
+        <v>45604</v>
+      </c>
+      <c r="E40" s="49">
+        <v>45606</v>
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="14"/>
@@ -5518,44 +5831,44 @@
       <c r="AK40" s="14"/>
       <c r="AL40" s="14"/>
       <c r="AM40" s="14"/>
-      <c r="AN40" s="27"/>
-      <c r="AO40" s="27"/>
+      <c r="AN40" s="14"/>
+      <c r="AO40" s="14"/>
       <c r="AP40" s="14"/>
       <c r="AQ40" s="14"/>
       <c r="AR40" s="14"/>
       <c r="AS40" s="14"/>
-      <c r="AT40" s="14"/>
+      <c r="AT40" s="27"/>
       <c r="AU40" s="27"/>
       <c r="AV40" s="27"/>
-      <c r="AW40" s="14"/>
-      <c r="AX40" s="14"/>
-      <c r="AY40" s="14"/>
-      <c r="AZ40" s="14"/>
-      <c r="BA40" s="14"/>
-      <c r="BB40" s="27"/>
-      <c r="BC40" s="27"/>
-      <c r="BD40" s="14"/>
-      <c r="BE40" s="14"/>
-      <c r="BF40" s="14"/>
+      <c r="AW40" s="27"/>
+      <c r="AX40" s="27"/>
+      <c r="AY40" s="27"/>
+      <c r="AZ40" s="27"/>
+      <c r="BA40" s="98"/>
+      <c r="BB40" s="99"/>
+      <c r="BC40" s="100"/>
+      <c r="BD40" s="27"/>
+      <c r="BE40" s="27"/>
+      <c r="BF40" s="27"/>
       <c r="BG40" s="14"/>
       <c r="BH40" s="14"/>
       <c r="BI40" s="27"/>
       <c r="BJ40" s="27"/>
-      <c r="BK40" s="27"/>
-      <c r="BL40" s="27"/>
-      <c r="BM40" s="27"/>
-      <c r="BN40" s="27"/>
-      <c r="BO40" s="27"/>
-      <c r="BP40" s="98"/>
-      <c r="BQ40" s="99"/>
-      <c r="BR40" s="99"/>
-      <c r="BS40" s="99"/>
-      <c r="BT40" s="99"/>
-      <c r="BU40" s="99"/>
-      <c r="BV40" s="100"/>
+      <c r="BK40" s="14"/>
+      <c r="BL40" s="14"/>
+      <c r="BM40" s="14"/>
+      <c r="BN40" s="14"/>
+      <c r="BO40" s="14"/>
+      <c r="BP40" s="27"/>
+      <c r="BQ40" s="27"/>
+      <c r="BR40" s="14"/>
+      <c r="BS40" s="14"/>
+      <c r="BT40" s="14"/>
+      <c r="BU40" s="14"/>
+      <c r="BV40" s="14"/>
       <c r="BW40" s="27"/>
       <c r="BX40" s="27"/>
-      <c r="BY40" s="27"/>
+      <c r="BY40" s="14"/>
       <c r="BZ40" s="14"/>
       <c r="CA40" s="14"/>
       <c r="CB40" s="14"/>
@@ -5565,17 +5878,17 @@
     </row>
     <row r="41" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A41" s="17"/>
-      <c r="B41" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="55">
-        <v>45626</v>
-      </c>
-      <c r="E41" s="55">
-        <v>45626</v>
+      <c r="B41" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="49">
+        <v>45604</v>
+      </c>
+      <c r="E41" s="49">
+        <v>45606</v>
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="14"/>
@@ -5611,25 +5924,25 @@
       <c r="AK41" s="14"/>
       <c r="AL41" s="14"/>
       <c r="AM41" s="14"/>
-      <c r="AN41" s="27"/>
-      <c r="AO41" s="27"/>
+      <c r="AN41" s="14"/>
+      <c r="AO41" s="14"/>
       <c r="AP41" s="14"/>
       <c r="AQ41" s="14"/>
       <c r="AR41" s="14"/>
       <c r="AS41" s="14"/>
-      <c r="AT41" s="14"/>
+      <c r="AT41" s="27"/>
       <c r="AU41" s="27"/>
       <c r="AV41" s="27"/>
-      <c r="AW41" s="14"/>
-      <c r="AX41" s="14"/>
-      <c r="AY41" s="14"/>
-      <c r="AZ41" s="14"/>
-      <c r="BA41" s="14"/>
-      <c r="BB41" s="27"/>
-      <c r="BC41" s="27"/>
-      <c r="BD41" s="14"/>
-      <c r="BE41" s="14"/>
-      <c r="BF41" s="14"/>
+      <c r="AW41" s="27"/>
+      <c r="AX41" s="27"/>
+      <c r="AY41" s="27"/>
+      <c r="AZ41" s="27"/>
+      <c r="BA41" s="98"/>
+      <c r="BB41" s="99"/>
+      <c r="BC41" s="100"/>
+      <c r="BD41" s="27"/>
+      <c r="BE41" s="27"/>
+      <c r="BF41" s="27"/>
       <c r="BG41" s="14"/>
       <c r="BH41" s="14"/>
       <c r="BI41" s="27"/>
@@ -5641,14 +5954,14 @@
       <c r="BO41" s="14"/>
       <c r="BP41" s="27"/>
       <c r="BQ41" s="27"/>
-      <c r="BR41" s="27"/>
+      <c r="BR41" s="14"/>
       <c r="BS41" s="14"/>
       <c r="BT41" s="14"/>
       <c r="BU41" s="14"/>
       <c r="BV41" s="14"/>
       <c r="BW41" s="27"/>
-      <c r="BX41" s="76"/>
-      <c r="BY41" s="27"/>
+      <c r="BX41" s="27"/>
+      <c r="BY41" s="14"/>
       <c r="BZ41" s="14"/>
       <c r="CA41" s="14"/>
       <c r="CB41" s="14"/>
@@ -5658,110 +5971,104 @@
     </row>
     <row r="42" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A42" s="17"/>
-      <c r="B42" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="55">
-        <v>45626</v>
-      </c>
-      <c r="E42" s="55">
-        <v>45626</v>
-      </c>
+      <c r="B42" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="51"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="13"/>
       <c r="F42" s="22"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="14"/>
-      <c r="Y42" s="14"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="14"/>
-      <c r="AC42" s="14"/>
-      <c r="AD42" s="14"/>
-      <c r="AE42" s="14"/>
-      <c r="AF42" s="14"/>
-      <c r="AG42" s="27"/>
-      <c r="AH42" s="27"/>
-      <c r="AI42" s="14"/>
-      <c r="AJ42" s="14"/>
-      <c r="AK42" s="14"/>
-      <c r="AL42" s="14"/>
-      <c r="AM42" s="14"/>
-      <c r="AN42" s="27"/>
-      <c r="AO42" s="27"/>
-      <c r="AP42" s="14"/>
-      <c r="AQ42" s="14"/>
-      <c r="AR42" s="14"/>
-      <c r="AS42" s="14"/>
-      <c r="AT42" s="14"/>
-      <c r="AU42" s="27"/>
-      <c r="AV42" s="27"/>
-      <c r="AW42" s="14"/>
-      <c r="AX42" s="14"/>
-      <c r="AY42" s="14"/>
-      <c r="AZ42" s="14"/>
-      <c r="BA42" s="14"/>
-      <c r="BB42" s="27"/>
-      <c r="BC42" s="27"/>
-      <c r="BD42" s="14"/>
-      <c r="BE42" s="14"/>
-      <c r="BF42" s="14"/>
-      <c r="BG42" s="14"/>
-      <c r="BH42" s="14"/>
-      <c r="BI42" s="27"/>
-      <c r="BJ42" s="27"/>
-      <c r="BK42" s="14"/>
-      <c r="BL42" s="14"/>
-      <c r="BM42" s="14"/>
-      <c r="BN42" s="14"/>
-      <c r="BO42" s="14"/>
-      <c r="BP42" s="27"/>
-      <c r="BQ42" s="27"/>
-      <c r="BR42" s="27"/>
-      <c r="BS42" s="14"/>
-      <c r="BT42" s="14"/>
-      <c r="BU42" s="14"/>
-      <c r="BV42" s="14"/>
-      <c r="BW42" s="27"/>
-      <c r="BX42" s="77"/>
-      <c r="BY42" s="27"/>
-      <c r="BZ42" s="14"/>
-      <c r="CA42" s="14"/>
-      <c r="CB42" s="14"/>
-      <c r="CC42" s="14"/>
-      <c r="CD42" s="27"/>
-      <c r="CE42" s="27"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="22"/>
+      <c r="AE42" s="22"/>
+      <c r="AF42" s="22"/>
+      <c r="AG42" s="22"/>
+      <c r="AH42" s="22"/>
+      <c r="AI42" s="22"/>
+      <c r="AJ42" s="22"/>
+      <c r="AK42" s="22"/>
+      <c r="AL42" s="22"/>
+      <c r="AM42" s="22"/>
+      <c r="AN42" s="22"/>
+      <c r="AO42" s="22"/>
+      <c r="AP42" s="22"/>
+      <c r="AQ42" s="22"/>
+      <c r="AR42" s="22"/>
+      <c r="AS42" s="22"/>
+      <c r="AT42" s="22"/>
+      <c r="AU42" s="22"/>
+      <c r="AV42" s="22"/>
+      <c r="AW42" s="22"/>
+      <c r="AX42" s="22"/>
+      <c r="AY42" s="22"/>
+      <c r="AZ42" s="22"/>
+      <c r="BA42" s="22"/>
+      <c r="BB42" s="22"/>
+      <c r="BC42" s="22"/>
+      <c r="BD42" s="22"/>
+      <c r="BE42" s="22"/>
+      <c r="BF42" s="22"/>
+      <c r="BG42" s="22"/>
+      <c r="BH42" s="22"/>
+      <c r="BI42" s="22"/>
+      <c r="BJ42" s="22"/>
+      <c r="BK42" s="22"/>
+      <c r="BL42" s="22"/>
+      <c r="BM42" s="22"/>
+      <c r="BN42" s="22"/>
+      <c r="BO42" s="22"/>
+      <c r="BP42" s="22"/>
+      <c r="BQ42" s="22"/>
+      <c r="BR42" s="22"/>
+      <c r="BS42" s="22"/>
+      <c r="BT42" s="22"/>
+      <c r="BU42" s="22"/>
+      <c r="BV42" s="22"/>
+      <c r="BW42" s="22"/>
+      <c r="BX42" s="22"/>
+      <c r="BY42" s="22"/>
+      <c r="BZ42" s="22"/>
+      <c r="CA42" s="22"/>
+      <c r="CB42" s="22"/>
+      <c r="CC42" s="22"/>
+      <c r="CD42" s="22"/>
+      <c r="CE42" s="22"/>
     </row>
     <row r="43" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A43" s="17"/>
       <c r="B43" s="53" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C43" s="54" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D43" s="55">
-        <v>45626</v>
+        <v>45610</v>
       </c>
       <c r="E43" s="55">
-        <v>45626</v>
+        <v>45614</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="14"/>
@@ -5816,24 +6123,24 @@
       <c r="BD43" s="14"/>
       <c r="BE43" s="14"/>
       <c r="BF43" s="14"/>
-      <c r="BG43" s="14"/>
-      <c r="BH43" s="14"/>
-      <c r="BI43" s="27"/>
-      <c r="BJ43" s="27"/>
-      <c r="BK43" s="14"/>
-      <c r="BL43" s="14"/>
-      <c r="BM43" s="14"/>
-      <c r="BN43" s="14"/>
-      <c r="BO43" s="14"/>
+      <c r="BG43" s="91"/>
+      <c r="BH43" s="101"/>
+      <c r="BI43" s="101"/>
+      <c r="BJ43" s="101"/>
+      <c r="BK43" s="92"/>
+      <c r="BL43" s="27"/>
+      <c r="BM43" s="27"/>
+      <c r="BN43" s="27"/>
+      <c r="BO43" s="27"/>
       <c r="BP43" s="27"/>
       <c r="BQ43" s="27"/>
       <c r="BR43" s="14"/>
-      <c r="BS43" s="62"/>
+      <c r="BS43" s="14"/>
       <c r="BT43" s="14"/>
       <c r="BU43" s="14"/>
       <c r="BV43" s="14"/>
       <c r="BW43" s="27"/>
-      <c r="BX43" s="77"/>
+      <c r="BX43" s="27"/>
       <c r="BY43" s="27"/>
       <c r="BZ43" s="14"/>
       <c r="CA43" s="14"/>
@@ -5845,13 +6152,13 @@
     <row r="44" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A44" s="17"/>
       <c r="B44" s="53" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C44" s="54" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D44" s="55">
-        <v>45626</v>
+        <v>45621</v>
       </c>
       <c r="E44" s="55">
         <v>45626</v>
@@ -5913,20 +6220,20 @@
       <c r="BH44" s="14"/>
       <c r="BI44" s="27"/>
       <c r="BJ44" s="27"/>
-      <c r="BK44" s="14"/>
-      <c r="BL44" s="14"/>
-      <c r="BM44" s="14"/>
-      <c r="BN44" s="14"/>
-      <c r="BO44" s="14"/>
+      <c r="BK44" s="27"/>
+      <c r="BL44" s="27"/>
+      <c r="BM44" s="27"/>
+      <c r="BN44" s="27"/>
+      <c r="BO44" s="27"/>
       <c r="BP44" s="27"/>
       <c r="BQ44" s="27"/>
-      <c r="BR44" s="14"/>
-      <c r="BS44" s="14"/>
-      <c r="BT44" s="14"/>
-      <c r="BU44" s="62"/>
-      <c r="BV44" s="14"/>
-      <c r="BW44" s="27"/>
-      <c r="BX44" s="75"/>
+      <c r="BR44" s="88"/>
+      <c r="BS44" s="89"/>
+      <c r="BT44" s="89"/>
+      <c r="BU44" s="89"/>
+      <c r="BV44" s="89"/>
+      <c r="BW44" s="90"/>
+      <c r="BX44" s="27"/>
       <c r="BY44" s="27"/>
       <c r="BZ44" s="14"/>
       <c r="CA44" s="14"/>
@@ -5938,16 +6245,16 @@
     <row r="45" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A45" s="17"/>
       <c r="B45" s="53" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C45" s="54" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D45" s="55">
-        <v>45626</v>
+        <v>45619</v>
       </c>
       <c r="E45" s="55">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="F45" s="22"/>
       <c r="G45" s="14"/>
@@ -6006,20 +6313,20 @@
       <c r="BH45" s="14"/>
       <c r="BI45" s="27"/>
       <c r="BJ45" s="27"/>
-      <c r="BK45" s="14"/>
-      <c r="BL45" s="14"/>
-      <c r="BM45" s="14"/>
-      <c r="BN45" s="14"/>
-      <c r="BO45" s="14"/>
-      <c r="BP45" s="27"/>
-      <c r="BQ45" s="27"/>
-      <c r="BR45" s="14"/>
-      <c r="BS45" s="14"/>
-      <c r="BT45" s="27"/>
-      <c r="BU45" s="14"/>
-      <c r="BV45" s="14"/>
+      <c r="BK45" s="27"/>
+      <c r="BL45" s="27"/>
+      <c r="BM45" s="27"/>
+      <c r="BN45" s="27"/>
+      <c r="BO45" s="27"/>
+      <c r="BP45" s="93"/>
+      <c r="BQ45" s="94"/>
+      <c r="BR45" s="94"/>
+      <c r="BS45" s="94"/>
+      <c r="BT45" s="94"/>
+      <c r="BU45" s="94"/>
+      <c r="BV45" s="95"/>
       <c r="BW45" s="27"/>
-      <c r="BX45" s="72"/>
+      <c r="BX45" s="27"/>
       <c r="BY45" s="27"/>
       <c r="BZ45" s="14"/>
       <c r="CA45" s="14"/>
@@ -6031,16 +6338,16 @@
     <row r="46" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A46" s="17"/>
       <c r="B46" s="53" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C46" s="54" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D46" s="55">
         <v>45626</v>
       </c>
       <c r="E46" s="55">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="14"/>
@@ -6106,13 +6413,13 @@
       <c r="BO46" s="14"/>
       <c r="BP46" s="27"/>
       <c r="BQ46" s="27"/>
-      <c r="BR46" s="14"/>
+      <c r="BR46" s="27"/>
       <c r="BS46" s="14"/>
       <c r="BT46" s="14"/>
-      <c r="BU46" s="62"/>
+      <c r="BU46" s="14"/>
       <c r="BV46" s="14"/>
       <c r="BW46" s="27"/>
-      <c r="BX46" s="71"/>
+      <c r="BX46" s="74"/>
       <c r="BY46" s="27"/>
       <c r="BZ46" s="14"/>
       <c r="CA46" s="14"/>
@@ -6123,131 +6430,504 @@
     </row>
     <row r="47" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A47" s="17"/>
-      <c r="B47" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="23"/>
+      <c r="B47" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="55">
+        <v>45626</v>
+      </c>
+      <c r="E47" s="55">
+        <v>45626</v>
+      </c>
       <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22"/>
-      <c r="S47" s="22"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22"/>
-      <c r="W47" s="22"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="22"/>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="22"/>
-      <c r="AC47" s="22"/>
-      <c r="AD47" s="22"/>
-      <c r="AE47" s="22"/>
-      <c r="AF47" s="22"/>
-      <c r="AG47" s="22"/>
-      <c r="AH47" s="22"/>
-      <c r="AI47" s="22"/>
-      <c r="AJ47" s="22"/>
-      <c r="AK47" s="22"/>
-      <c r="AL47" s="22"/>
-      <c r="AM47" s="22"/>
-      <c r="AN47" s="22"/>
-      <c r="AO47" s="22"/>
-      <c r="AP47" s="22"/>
-      <c r="AQ47" s="22"/>
-      <c r="AR47" s="22"/>
-      <c r="AS47" s="22"/>
-      <c r="AT47" s="22"/>
-      <c r="AU47" s="22"/>
-      <c r="AV47" s="22"/>
-      <c r="AW47" s="22"/>
-      <c r="AX47" s="22"/>
-      <c r="AY47" s="22"/>
-      <c r="AZ47" s="22"/>
-      <c r="BA47" s="22"/>
-      <c r="BB47" s="22"/>
-      <c r="BC47" s="22"/>
-      <c r="BD47" s="22"/>
-      <c r="BE47" s="22"/>
-      <c r="BF47" s="22"/>
-      <c r="BG47" s="22"/>
-      <c r="BH47" s="22"/>
-      <c r="BI47" s="22"/>
-      <c r="BJ47" s="22"/>
-      <c r="BK47" s="22"/>
-      <c r="BL47" s="22"/>
-      <c r="BM47" s="22"/>
-      <c r="BN47" s="22"/>
-      <c r="BO47" s="22"/>
-      <c r="BP47" s="22"/>
-      <c r="BQ47" s="22"/>
-      <c r="BR47" s="22"/>
-      <c r="BS47" s="22"/>
-      <c r="BT47" s="22"/>
-      <c r="BU47" s="22"/>
-      <c r="BV47" s="22"/>
-      <c r="BW47" s="22"/>
-      <c r="BX47" s="22"/>
-      <c r="BY47" s="22"/>
-      <c r="BZ47" s="22"/>
-      <c r="CA47" s="22"/>
-      <c r="CB47" s="22"/>
-      <c r="CC47" s="22"/>
-      <c r="CD47" s="22"/>
-      <c r="CE47" s="22"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="14"/>
+      <c r="Y47" s="14"/>
+      <c r="Z47" s="27"/>
+      <c r="AA47" s="27"/>
+      <c r="AB47" s="14"/>
+      <c r="AC47" s="14"/>
+      <c r="AD47" s="14"/>
+      <c r="AE47" s="14"/>
+      <c r="AF47" s="14"/>
+      <c r="AG47" s="27"/>
+      <c r="AH47" s="27"/>
+      <c r="AI47" s="14"/>
+      <c r="AJ47" s="14"/>
+      <c r="AK47" s="14"/>
+      <c r="AL47" s="14"/>
+      <c r="AM47" s="14"/>
+      <c r="AN47" s="27"/>
+      <c r="AO47" s="27"/>
+      <c r="AP47" s="14"/>
+      <c r="AQ47" s="14"/>
+      <c r="AR47" s="14"/>
+      <c r="AS47" s="14"/>
+      <c r="AT47" s="14"/>
+      <c r="AU47" s="27"/>
+      <c r="AV47" s="27"/>
+      <c r="AW47" s="14"/>
+      <c r="AX47" s="14"/>
+      <c r="AY47" s="14"/>
+      <c r="AZ47" s="14"/>
+      <c r="BA47" s="14"/>
+      <c r="BB47" s="27"/>
+      <c r="BC47" s="27"/>
+      <c r="BD47" s="14"/>
+      <c r="BE47" s="14"/>
+      <c r="BF47" s="14"/>
+      <c r="BG47" s="14"/>
+      <c r="BH47" s="14"/>
+      <c r="BI47" s="27"/>
+      <c r="BJ47" s="27"/>
+      <c r="BK47" s="14"/>
+      <c r="BL47" s="14"/>
+      <c r="BM47" s="14"/>
+      <c r="BN47" s="14"/>
+      <c r="BO47" s="14"/>
+      <c r="BP47" s="27"/>
+      <c r="BQ47" s="27"/>
+      <c r="BR47" s="27"/>
+      <c r="BS47" s="14"/>
+      <c r="BT47" s="14"/>
+      <c r="BU47" s="14"/>
+      <c r="BV47" s="14"/>
+      <c r="BW47" s="27"/>
+      <c r="BX47" s="75"/>
+      <c r="BY47" s="27"/>
+      <c r="BZ47" s="14"/>
+      <c r="CA47" s="14"/>
+      <c r="CB47" s="14"/>
+      <c r="CC47" s="14"/>
+      <c r="CD47" s="27"/>
+      <c r="CE47" s="27"/>
     </row>
-    <row r="49" spans="3:5" ht="30" customHeight="1">
-      <c r="C49" s="8"/>
-      <c r="E49" s="18"/>
+    <row r="48" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A48" s="17"/>
+      <c r="B48" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="55">
+        <v>45626</v>
+      </c>
+      <c r="E48" s="55">
+        <v>45626</v>
+      </c>
+      <c r="F48" s="22"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+      <c r="X48" s="14"/>
+      <c r="Y48" s="14"/>
+      <c r="Z48" s="27"/>
+      <c r="AA48" s="27"/>
+      <c r="AB48" s="14"/>
+      <c r="AC48" s="14"/>
+      <c r="AD48" s="14"/>
+      <c r="AE48" s="14"/>
+      <c r="AF48" s="14"/>
+      <c r="AG48" s="27"/>
+      <c r="AH48" s="27"/>
+      <c r="AI48" s="14"/>
+      <c r="AJ48" s="14"/>
+      <c r="AK48" s="14"/>
+      <c r="AL48" s="14"/>
+      <c r="AM48" s="14"/>
+      <c r="AN48" s="27"/>
+      <c r="AO48" s="27"/>
+      <c r="AP48" s="14"/>
+      <c r="AQ48" s="14"/>
+      <c r="AR48" s="14"/>
+      <c r="AS48" s="14"/>
+      <c r="AT48" s="14"/>
+      <c r="AU48" s="27"/>
+      <c r="AV48" s="27"/>
+      <c r="AW48" s="14"/>
+      <c r="AX48" s="14"/>
+      <c r="AY48" s="14"/>
+      <c r="AZ48" s="14"/>
+      <c r="BA48" s="14"/>
+      <c r="BB48" s="27"/>
+      <c r="BC48" s="27"/>
+      <c r="BD48" s="14"/>
+      <c r="BE48" s="14"/>
+      <c r="BF48" s="14"/>
+      <c r="BG48" s="14"/>
+      <c r="BH48" s="14"/>
+      <c r="BI48" s="27"/>
+      <c r="BJ48" s="27"/>
+      <c r="BK48" s="14"/>
+      <c r="BL48" s="14"/>
+      <c r="BM48" s="14"/>
+      <c r="BN48" s="14"/>
+      <c r="BO48" s="14"/>
+      <c r="BP48" s="27"/>
+      <c r="BQ48" s="27"/>
+      <c r="BR48" s="14"/>
+      <c r="BS48" s="62"/>
+      <c r="BT48" s="14"/>
+      <c r="BU48" s="14"/>
+      <c r="BV48" s="14"/>
+      <c r="BW48" s="27"/>
+      <c r="BX48" s="75"/>
+      <c r="BY48" s="27"/>
+      <c r="BZ48" s="14"/>
+      <c r="CA48" s="14"/>
+      <c r="CB48" s="14"/>
+      <c r="CC48" s="14"/>
+      <c r="CD48" s="27"/>
+      <c r="CE48" s="27"/>
     </row>
-    <row r="50" spans="3:5" ht="30" customHeight="1">
-      <c r="C50" s="9"/>
+    <row r="49" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A49" s="17"/>
+      <c r="B49" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="55">
+        <v>45626</v>
+      </c>
+      <c r="E49" s="55">
+        <v>45626</v>
+      </c>
+      <c r="F49" s="22"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="14"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49" s="14"/>
+      <c r="AC49" s="14"/>
+      <c r="AD49" s="14"/>
+      <c r="AE49" s="14"/>
+      <c r="AF49" s="14"/>
+      <c r="AG49" s="27"/>
+      <c r="AH49" s="27"/>
+      <c r="AI49" s="14"/>
+      <c r="AJ49" s="14"/>
+      <c r="AK49" s="14"/>
+      <c r="AL49" s="14"/>
+      <c r="AM49" s="14"/>
+      <c r="AN49" s="27"/>
+      <c r="AO49" s="27"/>
+      <c r="AP49" s="14"/>
+      <c r="AQ49" s="14"/>
+      <c r="AR49" s="14"/>
+      <c r="AS49" s="14"/>
+      <c r="AT49" s="14"/>
+      <c r="AU49" s="27"/>
+      <c r="AV49" s="27"/>
+      <c r="AW49" s="14"/>
+      <c r="AX49" s="14"/>
+      <c r="AY49" s="14"/>
+      <c r="AZ49" s="14"/>
+      <c r="BA49" s="14"/>
+      <c r="BB49" s="27"/>
+      <c r="BC49" s="27"/>
+      <c r="BD49" s="14"/>
+      <c r="BE49" s="14"/>
+      <c r="BF49" s="14"/>
+      <c r="BG49" s="14"/>
+      <c r="BH49" s="14"/>
+      <c r="BI49" s="27"/>
+      <c r="BJ49" s="27"/>
+      <c r="BK49" s="14"/>
+      <c r="BL49" s="14"/>
+      <c r="BM49" s="14"/>
+      <c r="BN49" s="14"/>
+      <c r="BO49" s="14"/>
+      <c r="BP49" s="27"/>
+      <c r="BQ49" s="27"/>
+      <c r="BR49" s="14"/>
+      <c r="BS49" s="14"/>
+      <c r="BT49" s="14"/>
+      <c r="BU49" s="62"/>
+      <c r="BV49" s="14"/>
+      <c r="BW49" s="27"/>
+      <c r="BX49" s="73"/>
+      <c r="BY49" s="27"/>
+      <c r="BZ49" s="14"/>
+      <c r="CA49" s="14"/>
+      <c r="CB49" s="14"/>
+      <c r="CC49" s="14"/>
+      <c r="CD49" s="27"/>
+      <c r="CE49" s="27"/>
+    </row>
+    <row r="50" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A50" s="17"/>
+      <c r="B50" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="55">
+        <v>45626</v>
+      </c>
+      <c r="E50" s="55">
+        <v>45626</v>
+      </c>
+      <c r="F50" s="22"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="14"/>
+      <c r="Y50" s="14"/>
+      <c r="Z50" s="27"/>
+      <c r="AA50" s="27"/>
+      <c r="AB50" s="14"/>
+      <c r="AC50" s="14"/>
+      <c r="AD50" s="14"/>
+      <c r="AE50" s="14"/>
+      <c r="AF50" s="14"/>
+      <c r="AG50" s="27"/>
+      <c r="AH50" s="27"/>
+      <c r="AI50" s="14"/>
+      <c r="AJ50" s="14"/>
+      <c r="AK50" s="14"/>
+      <c r="AL50" s="14"/>
+      <c r="AM50" s="14"/>
+      <c r="AN50" s="27"/>
+      <c r="AO50" s="27"/>
+      <c r="AP50" s="14"/>
+      <c r="AQ50" s="14"/>
+      <c r="AR50" s="14"/>
+      <c r="AS50" s="14"/>
+      <c r="AT50" s="14"/>
+      <c r="AU50" s="27"/>
+      <c r="AV50" s="27"/>
+      <c r="AW50" s="14"/>
+      <c r="AX50" s="14"/>
+      <c r="AY50" s="14"/>
+      <c r="AZ50" s="14"/>
+      <c r="BA50" s="14"/>
+      <c r="BB50" s="27"/>
+      <c r="BC50" s="27"/>
+      <c r="BD50" s="14"/>
+      <c r="BE50" s="14"/>
+      <c r="BF50" s="14"/>
+      <c r="BG50" s="14"/>
+      <c r="BH50" s="14"/>
+      <c r="BI50" s="27"/>
+      <c r="BJ50" s="27"/>
+      <c r="BK50" s="14"/>
+      <c r="BL50" s="14"/>
+      <c r="BM50" s="14"/>
+      <c r="BN50" s="14"/>
+      <c r="BO50" s="14"/>
+      <c r="BP50" s="27"/>
+      <c r="BQ50" s="27"/>
+      <c r="BR50" s="14"/>
+      <c r="BS50" s="14"/>
+      <c r="BT50" s="27"/>
+      <c r="BU50" s="14"/>
+      <c r="BV50" s="14"/>
+      <c r="BW50" s="27"/>
+      <c r="BX50" s="70"/>
+      <c r="BY50" s="27"/>
+      <c r="BZ50" s="14"/>
+      <c r="CA50" s="14"/>
+      <c r="CB50" s="14"/>
+      <c r="CC50" s="14"/>
+      <c r="CD50" s="27"/>
+      <c r="CE50" s="27"/>
+    </row>
+    <row r="51" spans="1:83" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A51" s="17"/>
+      <c r="B51" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="57"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="22"/>
+      <c r="X51" s="22"/>
+      <c r="Y51" s="22"/>
+      <c r="Z51" s="22"/>
+      <c r="AA51" s="22"/>
+      <c r="AB51" s="22"/>
+      <c r="AC51" s="22"/>
+      <c r="AD51" s="22"/>
+      <c r="AE51" s="22"/>
+      <c r="AF51" s="22"/>
+      <c r="AG51" s="22"/>
+      <c r="AH51" s="22"/>
+      <c r="AI51" s="22"/>
+      <c r="AJ51" s="22"/>
+      <c r="AK51" s="22"/>
+      <c r="AL51" s="22"/>
+      <c r="AM51" s="22"/>
+      <c r="AN51" s="22"/>
+      <c r="AO51" s="22"/>
+      <c r="AP51" s="22"/>
+      <c r="AQ51" s="22"/>
+      <c r="AR51" s="22"/>
+      <c r="AS51" s="22"/>
+      <c r="AT51" s="22"/>
+      <c r="AU51" s="22"/>
+      <c r="AV51" s="22"/>
+      <c r="AW51" s="22"/>
+      <c r="AX51" s="22"/>
+      <c r="AY51" s="22"/>
+      <c r="AZ51" s="22"/>
+      <c r="BA51" s="22"/>
+      <c r="BB51" s="22"/>
+      <c r="BC51" s="22"/>
+      <c r="BD51" s="22"/>
+      <c r="BE51" s="22"/>
+      <c r="BF51" s="22"/>
+      <c r="BG51" s="22"/>
+      <c r="BH51" s="22"/>
+      <c r="BI51" s="22"/>
+      <c r="BJ51" s="22"/>
+      <c r="BK51" s="22"/>
+      <c r="BL51" s="22"/>
+      <c r="BM51" s="22"/>
+      <c r="BN51" s="22"/>
+      <c r="BO51" s="22"/>
+      <c r="BP51" s="22"/>
+      <c r="BQ51" s="22"/>
+      <c r="BR51" s="22"/>
+      <c r="BS51" s="22"/>
+      <c r="BT51" s="22"/>
+      <c r="BU51" s="22"/>
+      <c r="BV51" s="22"/>
+      <c r="BW51" s="22"/>
+      <c r="BX51" s="22"/>
+      <c r="BY51" s="22"/>
+      <c r="BZ51" s="22"/>
+      <c r="CA51" s="22"/>
+      <c r="CB51" s="22"/>
+      <c r="CC51" s="22"/>
+      <c r="CD51" s="22"/>
+      <c r="CE51" s="22"/>
+    </row>
+    <row r="53" spans="1:83" ht="30" customHeight="1">
+      <c r="C53" s="8"/>
+      <c r="E53" s="18"/>
+    </row>
+    <row r="54" spans="1:83" ht="30" customHeight="1">
+      <c r="C54" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="BP40:BV40"/>
-    <mergeCell ref="AZ31:BB31"/>
-    <mergeCell ref="AY28:BB28"/>
-    <mergeCell ref="AT22:BA22"/>
-    <mergeCell ref="AZ32:BB32"/>
-    <mergeCell ref="AS24:BB24"/>
-    <mergeCell ref="AZ33:BB33"/>
-    <mergeCell ref="AR30:BB30"/>
-    <mergeCell ref="AT27:BB27"/>
-    <mergeCell ref="BA34:BC34"/>
-    <mergeCell ref="AT29:BB29"/>
-    <mergeCell ref="AT25:BB25"/>
-    <mergeCell ref="BA35:BC35"/>
-    <mergeCell ref="BG38:BK38"/>
-    <mergeCell ref="BR39:BW39"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="AV19:BC19"/>
-    <mergeCell ref="AT26:BD26"/>
-    <mergeCell ref="AQ21:BB21"/>
-    <mergeCell ref="AU23:BB23"/>
-    <mergeCell ref="AS20:AV20"/>
-    <mergeCell ref="AE14:AH14"/>
-    <mergeCell ref="AE15:AH15"/>
-    <mergeCell ref="AE16:AI16"/>
+  <mergeCells count="44">
+    <mergeCell ref="BP45:BV45"/>
+    <mergeCell ref="AZ37:BB37"/>
+    <mergeCell ref="AY34:BB34"/>
+    <mergeCell ref="AT28:BA28"/>
+    <mergeCell ref="AZ38:BB38"/>
+    <mergeCell ref="AS30:BB30"/>
+    <mergeCell ref="AZ39:BB39"/>
+    <mergeCell ref="AR36:BB36"/>
+    <mergeCell ref="AT33:BB33"/>
+    <mergeCell ref="BA40:BC40"/>
+    <mergeCell ref="AT35:BB35"/>
+    <mergeCell ref="AT31:BB31"/>
+    <mergeCell ref="BA41:BC41"/>
+    <mergeCell ref="BG43:BK43"/>
+    <mergeCell ref="BR44:BW44"/>
+    <mergeCell ref="AH23:AI23"/>
+    <mergeCell ref="AV25:BC25"/>
+    <mergeCell ref="AT32:BD32"/>
+    <mergeCell ref="AQ27:BB27"/>
+    <mergeCell ref="AU29:BB29"/>
+    <mergeCell ref="AS26:AV26"/>
+    <mergeCell ref="AE20:AH20"/>
+    <mergeCell ref="AE21:AH21"/>
+    <mergeCell ref="AE22:AI22"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="I8:P8"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="AE13:AH13"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="AE19:AH19"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="I8:J8"/>
     <mergeCell ref="AP4:AV4"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="G4:M4"/>
@@ -6261,161 +6941,156 @@
     <mergeCell ref="AW4:BC4"/>
     <mergeCell ref="BD4:BJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="U7:Y8 Z7:AF10 AI7:AM10 AN7:BC18 AL11:AM17 AI18:AM19 BD47:BX47">
-    <cfRule type="expression" dxfId="31" priority="62">
+  <conditionalFormatting sqref="Z7:AF16 AN7:BC24 BD51:BX51 G7:Y7 G14:S14 U14:Y14 G9:Y13 G8:I8 K8:Y8 G16:T51 CD7:CE51 U24:AM51 BY43:CC51 AN42:BC51">
+    <cfRule type="expression" dxfId="62" priority="60">
+      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U7:Y14 Z7:AF16 AN7:CC24 BD51:BX51 AI7:AM16 AL17:AM23 AI24:AM25 BG25:CC41 AN36:AO36 AN37:AS41 BD42:CC42 AN42:AT51 AW42:BA51 U43:AM51 BY43:CC51 G16:R51">
+    <cfRule type="expression" dxfId="61" priority="61" stopIfTrue="1">
+      <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U16:Y16 AG7:AM16 BD7:CC25 AW26:CC26 BC27:CC27 BB28:CC28 BC29:CC31 BE32:CC32 BC33:CC39 AN36:AR36 AN37:AZ39 AN40:BA41 BD40:CC42 G6:CE6 G15:P15 R15:T15 AT28:AT29 AU29 AT31:AT33 AT34:AY34 AT35 BD48:BR48 BT48:BX48 BD49:BT49 BV49:BX49">
+    <cfRule type="expression" dxfId="60" priority="193">
+      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U42:AA42">
+    <cfRule type="expression" dxfId="59" priority="132">
       <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U7:Y8 Z7:AF10 AN7:BC18 BD47:BX47">
-    <cfRule type="expression" dxfId="30" priority="60">
+  <conditionalFormatting sqref="W15:Y15 U16:Y16 U17:X20">
+    <cfRule type="expression" dxfId="58" priority="150">
+      <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W15:Y15 U16:Y16">
+    <cfRule type="expression" dxfId="57" priority="149" stopIfTrue="1">
+      <formula>AND(task_end&gt;=U$5,task_start&lt;V$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W15:Y15">
+    <cfRule type="expression" dxfId="56" priority="148">
+      <formula>AND(task_start&lt;=W$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=W$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z24:AA41">
+    <cfRule type="expression" dxfId="55" priority="74">
+      <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB17:AM18 AI19:AM21 AJ22:AM23 U17:Y17 U18:Z18 U19:AE22 U23:AH23">
+    <cfRule type="expression" dxfId="54" priority="72">
       <formula>AND(task_start&lt;=U$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=U$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U7:Y8 Z7:AF10 AN7:CC18 BD47:BX47 AI7:AM10 G10:R47 AL11:AM17 AI18:AM19 BG19:CC36 AN30:AO30 AN31:AS36 BD37:CC37 AN37:AT47 AW37:BA47 U38:AM47 BY38:CC47">
-    <cfRule type="expression" dxfId="29" priority="61" stopIfTrue="1">
-      <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U10:Y10 AG7:AM10 BD7:CC19 G10:T47 AW20:CC20 BC21:CC21 BB22:CC22 BC23:CC25 BE26:CC26 BC27:CC33 AN30:AR30 AN31:AZ33 AN34:BA35 BD34:CC35 AN36:CC36 BD37:CC37 BY38:CC47 G6:CE6 G7:T7 CD7:CE47 G8:I8 Q8:T8 G9:P9 R9:T9 AT25:AT27 AT28:AY28 AT29 BD43:BR43 BT43:BX43 BD44:BT44 BV44:BX44 BD46:BT46 BV46:BX46 AT22:AT23 AU23">
-    <cfRule type="expression" dxfId="28" priority="193">
-      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U37:AA37">
-    <cfRule type="expression" dxfId="27" priority="132">
-      <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W9:Y9 U10:Y10 U11:X14">
-    <cfRule type="expression" dxfId="26" priority="150">
-      <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W9:Y9 U10:Y10">
-    <cfRule type="expression" dxfId="25" priority="149" stopIfTrue="1">
-      <formula>AND(task_end&gt;=U$5,task_start&lt;V$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W9:Y9">
-    <cfRule type="expression" dxfId="24" priority="148">
-      <formula>AND(task_start&lt;=W$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=W$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z18:AA36 AB18:AF37 AU37:AV47">
-    <cfRule type="expression" dxfId="23" priority="74">
-      <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB11:AM12 AI13:AM15 AJ16:AM17 U18:AM47 AN37:BC47 U11:Y11 U12:Z12 U13:AE16 U17:AH17">
-    <cfRule type="expression" dxfId="22" priority="72">
-      <formula>AND(task_start&lt;=U$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=U$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN19:AN20 AP19:AQ19 AJ20:AJ21 AL20:AL21">
-    <cfRule type="expression" dxfId="21" priority="49" stopIfTrue="1">
+  <conditionalFormatting sqref="AN25:AN26 AP25:AQ25 AJ26:AJ27 AL26:AL27">
+    <cfRule type="expression" dxfId="53" priority="49" stopIfTrue="1">
       <formula>AND(task_end&gt;=AJ$5,task_start&lt;AK$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN19:AO27">
-    <cfRule type="expression" dxfId="20" priority="48">
+  <conditionalFormatting sqref="AN25:AO33">
+    <cfRule type="expression" dxfId="52" priority="48">
       <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN28:AS29">
-    <cfRule type="expression" dxfId="19" priority="19">
+  <conditionalFormatting sqref="AN34:AS35">
+    <cfRule type="expression" dxfId="51" priority="19">
       <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP24 AR24">
-    <cfRule type="expression" dxfId="18" priority="39" stopIfTrue="1">
+  <conditionalFormatting sqref="AP30 AR30">
+    <cfRule type="expression" dxfId="50" priority="39" stopIfTrue="1">
       <formula>AND(task_end&gt;=AP$5,task_start&lt;AQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP28:AP29">
-    <cfRule type="expression" dxfId="17" priority="20">
+  <conditionalFormatting sqref="AP34:AP35">
+    <cfRule type="expression" dxfId="49" priority="20">
       <formula>AND(TODAY()&gt;=AP$5,TODAY()&lt;AQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP21:AQ21 AP22:AS27">
-    <cfRule type="expression" dxfId="16" priority="2">
+  <conditionalFormatting sqref="AP27:AQ27 AP28:AS33">
+    <cfRule type="expression" dxfId="48" priority="2">
       <formula>AND(task_start&lt;=AP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AP$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP26:AQ26">
-    <cfRule type="expression" dxfId="15" priority="30">
+  <conditionalFormatting sqref="AP32:AQ32">
+    <cfRule type="expression" dxfId="47" priority="30">
       <formula>AND(TODAY()&gt;=AP$5,TODAY()&lt;AQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP24:AR24">
-    <cfRule type="expression" dxfId="14" priority="40">
+  <conditionalFormatting sqref="AP30:AR30">
+    <cfRule type="expression" dxfId="46" priority="40">
       <formula>AND(TODAY()&gt;=AP$5,TODAY()&lt;AQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP19:AS19 AN19:AO27 AP20:AR20">
-    <cfRule type="expression" dxfId="13" priority="50">
+  <conditionalFormatting sqref="AP25:AS25 AN25:AO33 AP26:AR26">
+    <cfRule type="expression" dxfId="45" priority="50">
       <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP22:AS23 AP21:AQ21">
-    <cfRule type="expression" dxfId="12" priority="45">
+  <conditionalFormatting sqref="AP28:AS29 AP27:AQ27">
+    <cfRule type="expression" dxfId="44" priority="45">
       <formula>AND(TODAY()&gt;=AP$5,TODAY()&lt;AQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP19:AV19 AP20:AS20">
-    <cfRule type="expression" dxfId="11" priority="38">
+  <conditionalFormatting sqref="AP25:AV25 AP26:AS26">
+    <cfRule type="expression" dxfId="43" priority="38">
       <formula>AND(task_start&lt;=AP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AP$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ26">
-    <cfRule type="expression" dxfId="10" priority="29" stopIfTrue="1">
+  <conditionalFormatting sqref="AQ32">
+    <cfRule type="expression" dxfId="42" priority="29" stopIfTrue="1">
       <formula>AND(task_end&gt;=AQ$5,task_start&lt;AR$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ28:AR28 AN28:AO29 AQ29:AS29">
-    <cfRule type="expression" dxfId="9" priority="23">
+  <conditionalFormatting sqref="AQ34:AR34 AN34:AO35 AQ35:AS35">
+    <cfRule type="expression" dxfId="41" priority="23">
       <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ28:AR28 AO28:AO29 AQ29">
-    <cfRule type="expression" dxfId="8" priority="22" stopIfTrue="1">
+  <conditionalFormatting sqref="AQ34:AR34 AO34:AO35 AQ35">
+    <cfRule type="expression" dxfId="40" priority="22" stopIfTrue="1">
       <formula>AND(task_end&gt;=AO$5,task_start&lt;AP$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR26">
-    <cfRule type="expression" dxfId="7" priority="27">
+  <conditionalFormatting sqref="AR32">
+    <cfRule type="expression" dxfId="39" priority="27">
       <formula>AND(TODAY()&gt;=AR$5,TODAY()&lt;AS$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS22">
-    <cfRule type="expression" dxfId="6" priority="44" stopIfTrue="1">
+  <conditionalFormatting sqref="AS28">
+    <cfRule type="expression" dxfId="38" priority="44" stopIfTrue="1">
       <formula>AND(task_end&gt;=AS$5,task_start&lt;AT$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS24:AS28">
-    <cfRule type="expression" dxfId="5" priority="3">
+  <conditionalFormatting sqref="AS30:AS34">
+    <cfRule type="expression" dxfId="37" priority="3">
       <formula>AND(TODAY()&gt;=AS$5,TODAY()&lt;AT$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD38:BG38 BL38:BX38 BD39:BR39 BX39 BD40:BO40 BW40:BX40 BD41:BX42">
-    <cfRule type="expression" dxfId="4" priority="7">
+  <conditionalFormatting sqref="BD43:BG43 BL43:BX43 BD44:BR44 BX44 BD45:BO45 BW45:BX45 BD46:BX47">
+    <cfRule type="expression" dxfId="36" priority="7">
       <formula>AND(TODAY()&gt;=BD$5,TODAY()&lt;BE$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD38:BG38 BL38:BX38 BD39:BR39 BX39 BD40:BP40 BW40:BX40 BD41:BX42">
-    <cfRule type="expression" dxfId="3" priority="1">
+  <conditionalFormatting sqref="BD43:BG43 BL43:BX43 BD44:BR44 BX44 BD45:BP45 BW45:BX45 BD46:BX47">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>AND(task_start&lt;=BD$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BD$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD45:BX45">
-    <cfRule type="expression" dxfId="2" priority="4">
+  <conditionalFormatting sqref="BD50:BX50">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>AND(task_start&lt;=BD$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BD$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="33" priority="5">
       <formula>AND(TODAY()&gt;=BD$5,TODAY()&lt;BE$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY5:CE5 BX5:BX6 CE6">
-    <cfRule type="expression" dxfId="0" priority="201">
+    <cfRule type="expression" dxfId="32" priority="201">
       <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Administration/MINTA-gantt-diagram.xlsx
+++ b/Administration/MINTA-gantt-diagram.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9877AC07-FDCE-428D-90E3-78175AC4369D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24473DC0-D776-44FC-858B-09C3DDB3E247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -901,6 +901,76 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -910,83 +980,13 @@
     <xf numFmtId="169" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="8" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Cím" xfId="4" builtinId="15" customBuiltin="1"/>
@@ -1002,19 +1002,7 @@
     <cellStyle name="Task" xfId="11" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
     <cellStyle name="zHiddenText" xfId="2" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="72">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <border>
         <left style="thin">
@@ -1033,6 +1021,18 @@
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1282,331 +1282,11 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -1637,13 +1317,6 @@
         <left/>
         <right/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1741,15 +1414,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="71"/>
-      <tableStyleElement type="headerRow" dxfId="70"/>
-      <tableStyleElement type="totalRow" dxfId="69"/>
-      <tableStyleElement type="firstColumn" dxfId="68"/>
-      <tableStyleElement type="lastColumn" dxfId="67"/>
-      <tableStyleElement type="firstRowStripe" dxfId="66"/>
-      <tableStyleElement type="secondRowStripe" dxfId="65"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="64"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="63"/>
+      <tableStyleElement type="wholeTable" dxfId="39"/>
+      <tableStyleElement type="headerRow" dxfId="38"/>
+      <tableStyleElement type="totalRow" dxfId="37"/>
+      <tableStyleElement type="firstColumn" dxfId="36"/>
+      <tableStyleElement type="lastColumn" dxfId="35"/>
+      <tableStyleElement type="firstRowStripe" dxfId="34"/>
+      <tableStyleElement type="secondRowStripe" dxfId="33"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="32"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="31"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2111,9 +1784,9 @@
   </sheetPr>
   <dimension ref="A1:CE54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="72" zoomScaleNormal="72" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CE7" sqref="CE7"/>
+      <selection pane="bottomLeft" activeCell="CF1" sqref="CF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -2134,15 +1807,21 @@
     <col min="24" max="24" width="4.5703125" customWidth="1"/>
     <col min="25" max="29" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="3.42578125" customWidth="1"/>
-    <col min="31" max="36" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.85546875" customWidth="1"/>
+    <col min="36" max="36" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="4.42578125" customWidth="1"/>
-    <col min="38" max="43" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="4.5703125" customWidth="1"/>
-    <col min="45" max="45" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="4.7109375" customWidth="1"/>
+    <col min="41" max="43" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.5703125" customWidth="1"/>
+    <col min="45" max="45" width="4.85546875" customWidth="1"/>
     <col min="46" max="52" width="2.5703125" customWidth="1"/>
     <col min="53" max="53" width="3.42578125" customWidth="1"/>
     <col min="54" max="54" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="60" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="4.5703125" customWidth="1"/>
+    <col min="57" max="60" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="3.85546875" customWidth="1"/>
     <col min="62" max="75" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="76" max="83" width="2.5703125" customWidth="1"/>
@@ -2159,170 +1838,170 @@
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
       <c r="I1" s="29"/>
-      <c r="J1" t="s">
+      <c r="J1" s="105"/>
+      <c r="K1" t="s">
         <v>21</v>
       </c>
       <c r="O1" s="59"/>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>22</v>
       </c>
       <c r="W1" s="63"/>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
       <c r="AC1" s="60"/>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>24</v>
       </c>
       <c r="AJ1" s="68"/>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>25</v>
       </c>
       <c r="AQ1" s="61"/>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>26</v>
       </c>
       <c r="AZ1" s="64"/>
-      <c r="BA1" t="s">
+      <c r="BD1" t="s">
         <v>27</v>
       </c>
       <c r="BH1" s="65"/>
       <c r="BI1" s="66"/>
-      <c r="BO1" s="105"/>
     </row>
     <row r="2" spans="1:83" ht="25.5" customHeight="1">
       <c r="B2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="79"/>
+      <c r="E2" s="99"/>
       <c r="F2" s="15"/>
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:83" ht="25.5" customHeight="1">
       <c r="B3" s="26"/>
-      <c r="D3" s="79">
+      <c r="D3" s="99">
         <v>45560</v>
       </c>
-      <c r="E3" s="79"/>
+      <c r="E3" s="99"/>
       <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:83" ht="25.5" customHeight="1">
       <c r="A4" s="17"/>
       <c r="D4"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="76">
+      <c r="F4" s="103"/>
+      <c r="G4" s="100">
         <f>G5</f>
         <v>45558</v>
       </c>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="76">
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="100">
         <f>N5</f>
         <v>45565</v>
       </c>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="76">
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="102"/>
+      <c r="U4" s="100">
         <f>U5</f>
         <v>45572</v>
       </c>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="76">
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="102"/>
+      <c r="AB4" s="100">
         <f>AB5</f>
         <v>45579</v>
       </c>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="76">
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="101"/>
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="102"/>
+      <c r="AI4" s="100">
         <f>AI5</f>
         <v>45586</v>
       </c>
-      <c r="AJ4" s="77"/>
-      <c r="AK4" s="77"/>
-      <c r="AL4" s="77"/>
-      <c r="AM4" s="77"/>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="78"/>
-      <c r="AP4" s="76">
+      <c r="AJ4" s="101"/>
+      <c r="AK4" s="101"/>
+      <c r="AL4" s="101"/>
+      <c r="AM4" s="101"/>
+      <c r="AN4" s="101"/>
+      <c r="AO4" s="102"/>
+      <c r="AP4" s="100">
         <f>AP5</f>
         <v>45593</v>
       </c>
-      <c r="AQ4" s="77"/>
-      <c r="AR4" s="77"/>
-      <c r="AS4" s="77"/>
-      <c r="AT4" s="77"/>
-      <c r="AU4" s="77"/>
-      <c r="AV4" s="78"/>
-      <c r="AW4" s="76">
+      <c r="AQ4" s="101"/>
+      <c r="AR4" s="101"/>
+      <c r="AS4" s="101"/>
+      <c r="AT4" s="101"/>
+      <c r="AU4" s="101"/>
+      <c r="AV4" s="102"/>
+      <c r="AW4" s="100">
         <f>AW5</f>
         <v>45600</v>
       </c>
-      <c r="AX4" s="77"/>
-      <c r="AY4" s="77"/>
-      <c r="AZ4" s="77"/>
-      <c r="BA4" s="77"/>
-      <c r="BB4" s="77"/>
-      <c r="BC4" s="78"/>
-      <c r="BD4" s="76">
+      <c r="AX4" s="101"/>
+      <c r="AY4" s="101"/>
+      <c r="AZ4" s="101"/>
+      <c r="BA4" s="101"/>
+      <c r="BB4" s="101"/>
+      <c r="BC4" s="102"/>
+      <c r="BD4" s="100">
         <f>BD5</f>
         <v>45607</v>
       </c>
-      <c r="BE4" s="77"/>
-      <c r="BF4" s="77"/>
-      <c r="BG4" s="77"/>
-      <c r="BH4" s="77"/>
-      <c r="BI4" s="77"/>
-      <c r="BJ4" s="78"/>
-      <c r="BK4" s="76">
+      <c r="BE4" s="101"/>
+      <c r="BF4" s="101"/>
+      <c r="BG4" s="101"/>
+      <c r="BH4" s="101"/>
+      <c r="BI4" s="101"/>
+      <c r="BJ4" s="102"/>
+      <c r="BK4" s="100">
         <f>BK5</f>
         <v>45614</v>
       </c>
-      <c r="BL4" s="77"/>
-      <c r="BM4" s="77"/>
-      <c r="BN4" s="77"/>
-      <c r="BO4" s="77"/>
-      <c r="BP4" s="77"/>
-      <c r="BQ4" s="78"/>
-      <c r="BR4" s="76">
+      <c r="BL4" s="101"/>
+      <c r="BM4" s="101"/>
+      <c r="BN4" s="101"/>
+      <c r="BO4" s="101"/>
+      <c r="BP4" s="101"/>
+      <c r="BQ4" s="102"/>
+      <c r="BR4" s="100">
         <f>BR5</f>
         <v>45621</v>
       </c>
-      <c r="BS4" s="77"/>
-      <c r="BT4" s="77"/>
-      <c r="BU4" s="77"/>
-      <c r="BV4" s="77"/>
-      <c r="BW4" s="77"/>
-      <c r="BX4" s="78"/>
-      <c r="BY4" s="76">
+      <c r="BS4" s="101"/>
+      <c r="BT4" s="101"/>
+      <c r="BU4" s="101"/>
+      <c r="BV4" s="101"/>
+      <c r="BW4" s="101"/>
+      <c r="BX4" s="102"/>
+      <c r="BY4" s="100">
         <f>BY5</f>
         <v>45628</v>
       </c>
-      <c r="BZ4" s="77"/>
-      <c r="CA4" s="77"/>
-      <c r="CB4" s="77"/>
-      <c r="CC4" s="77"/>
-      <c r="CD4" s="77"/>
-      <c r="CE4" s="78"/>
+      <c r="BZ4" s="101"/>
+      <c r="CA4" s="101"/>
+      <c r="CB4" s="101"/>
+      <c r="CC4" s="101"/>
+      <c r="CD4" s="101"/>
+      <c r="CE4" s="102"/>
     </row>
     <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1">
       <c r="A5" s="17"/>
@@ -2338,7 +2017,7 @@
       <c r="E5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="81"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="6">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45558</v>
@@ -2834,8 +2513,8 @@
       <c r="F8" s="22"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="95"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="80"/>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
@@ -2928,12 +2607,12 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="103"/>
+      <c r="J9" s="76"/>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
-      <c r="O9" s="104"/>
+      <c r="O9" s="77"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="69"/>
@@ -3402,8 +3081,8 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="69"/>
-      <c r="S14" s="88"/>
-      <c r="T14" s="90"/>
+      <c r="S14" s="96"/>
+      <c r="T14" s="98"/>
       <c r="U14" s="14"/>
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
@@ -3492,8 +3171,8 @@
       <c r="M15" s="27"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="97"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="89"/>
       <c r="R15" s="73"/>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
@@ -3681,9 +3360,9 @@
       <c r="V17" s="27"/>
       <c r="W17" s="27"/>
       <c r="X17" s="27"/>
-      <c r="Y17" s="93"/>
-      <c r="Z17" s="94"/>
-      <c r="AA17" s="95"/>
+      <c r="Y17" s="78"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="80"/>
       <c r="AB17" s="27"/>
       <c r="AC17" s="27"/>
       <c r="AD17" s="27"/>
@@ -3775,8 +3454,8 @@
       <c r="W18" s="27"/>
       <c r="X18" s="27"/>
       <c r="Y18" s="27"/>
-      <c r="Z18" s="91"/>
-      <c r="AA18" s="92"/>
+      <c r="Z18" s="93"/>
+      <c r="AA18" s="95"/>
       <c r="AB18" s="27"/>
       <c r="AC18" s="27"/>
       <c r="AD18" s="27"/>
@@ -3873,10 +3552,10 @@
       <c r="AB19" s="27"/>
       <c r="AC19" s="27"/>
       <c r="AD19" s="27"/>
-      <c r="AE19" s="98"/>
-      <c r="AF19" s="99"/>
-      <c r="AG19" s="99"/>
-      <c r="AH19" s="100"/>
+      <c r="AE19" s="90"/>
+      <c r="AF19" s="91"/>
+      <c r="AG19" s="91"/>
+      <c r="AH19" s="92"/>
       <c r="AI19" s="27"/>
       <c r="AJ19" s="27"/>
       <c r="AK19" s="27"/>
@@ -3966,10 +3645,10 @@
       <c r="AB20" s="27"/>
       <c r="AC20" s="27"/>
       <c r="AD20" s="27"/>
-      <c r="AE20" s="82"/>
-      <c r="AF20" s="83"/>
-      <c r="AG20" s="83"/>
-      <c r="AH20" s="84"/>
+      <c r="AE20" s="81"/>
+      <c r="AF20" s="82"/>
+      <c r="AG20" s="82"/>
+      <c r="AH20" s="83"/>
       <c r="AI20" s="27"/>
       <c r="AJ20" s="27"/>
       <c r="AK20" s="27"/>
@@ -4059,10 +3738,10 @@
       <c r="AB21" s="27"/>
       <c r="AC21" s="27"/>
       <c r="AD21" s="27"/>
-      <c r="AE21" s="85"/>
-      <c r="AF21" s="86"/>
-      <c r="AG21" s="86"/>
-      <c r="AH21" s="87"/>
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="85"/>
+      <c r="AG21" s="85"/>
+      <c r="AH21" s="86"/>
       <c r="AI21" s="14"/>
       <c r="AJ21" s="27"/>
       <c r="AK21" s="27"/>
@@ -4152,11 +3831,11 @@
       <c r="AB22" s="27"/>
       <c r="AC22" s="27"/>
       <c r="AD22" s="27"/>
-      <c r="AE22" s="88"/>
-      <c r="AF22" s="89"/>
-      <c r="AG22" s="89"/>
-      <c r="AH22" s="89"/>
-      <c r="AI22" s="90"/>
+      <c r="AE22" s="96"/>
+      <c r="AF22" s="97"/>
+      <c r="AG22" s="97"/>
+      <c r="AH22" s="97"/>
+      <c r="AI22" s="98"/>
       <c r="AJ22" s="27"/>
       <c r="AK22" s="27"/>
       <c r="AL22" s="14"/>
@@ -4248,8 +3927,8 @@
       <c r="AE23" s="27"/>
       <c r="AF23" s="27"/>
       <c r="AG23" s="27"/>
-      <c r="AH23" s="96"/>
-      <c r="AI23" s="97"/>
+      <c r="AH23" s="87"/>
+      <c r="AI23" s="89"/>
       <c r="AJ23" s="27"/>
       <c r="AK23" s="27"/>
       <c r="AL23" s="14"/>
@@ -4444,14 +4123,14 @@
       <c r="AS25" s="14"/>
       <c r="AT25" s="27"/>
       <c r="AU25" s="27"/>
-      <c r="AV25" s="88"/>
-      <c r="AW25" s="89"/>
-      <c r="AX25" s="89"/>
-      <c r="AY25" s="89"/>
-      <c r="AZ25" s="89"/>
-      <c r="BA25" s="89"/>
-      <c r="BB25" s="89"/>
-      <c r="BC25" s="90"/>
+      <c r="AV25" s="96"/>
+      <c r="AW25" s="97"/>
+      <c r="AX25" s="97"/>
+      <c r="AY25" s="97"/>
+      <c r="AZ25" s="97"/>
+      <c r="BA25" s="97"/>
+      <c r="BB25" s="97"/>
+      <c r="BC25" s="98"/>
       <c r="BD25" s="27"/>
       <c r="BE25" s="27"/>
       <c r="BF25" s="27"/>
@@ -4534,10 +4213,10 @@
       <c r="AP26" s="14"/>
       <c r="AQ26" s="14"/>
       <c r="AR26" s="14"/>
-      <c r="AS26" s="93"/>
-      <c r="AT26" s="94"/>
-      <c r="AU26" s="94"/>
-      <c r="AV26" s="95"/>
+      <c r="AS26" s="78"/>
+      <c r="AT26" s="79"/>
+      <c r="AU26" s="79"/>
+      <c r="AV26" s="80"/>
       <c r="AW26" s="27"/>
       <c r="AX26" s="27"/>
       <c r="AY26" s="27"/>
@@ -4625,18 +4304,18 @@
       <c r="AN27" s="14"/>
       <c r="AO27" s="14"/>
       <c r="AP27" s="14"/>
-      <c r="AQ27" s="91"/>
-      <c r="AR27" s="101"/>
-      <c r="AS27" s="101"/>
-      <c r="AT27" s="101"/>
-      <c r="AU27" s="101"/>
-      <c r="AV27" s="101"/>
-      <c r="AW27" s="101"/>
-      <c r="AX27" s="101"/>
-      <c r="AY27" s="101"/>
-      <c r="AZ27" s="101"/>
-      <c r="BA27" s="101"/>
-      <c r="BB27" s="92"/>
+      <c r="AQ27" s="93"/>
+      <c r="AR27" s="94"/>
+      <c r="AS27" s="94"/>
+      <c r="AT27" s="94"/>
+      <c r="AU27" s="94"/>
+      <c r="AV27" s="94"/>
+      <c r="AW27" s="94"/>
+      <c r="AX27" s="94"/>
+      <c r="AY27" s="94"/>
+      <c r="AZ27" s="94"/>
+      <c r="BA27" s="94"/>
+      <c r="BB27" s="95"/>
       <c r="BC27" s="27"/>
       <c r="BD27" s="27"/>
       <c r="BE27" s="27"/>
@@ -4721,14 +4400,14 @@
       <c r="AQ28" s="14"/>
       <c r="AR28" s="14"/>
       <c r="AS28" s="14"/>
-      <c r="AT28" s="93"/>
-      <c r="AU28" s="94"/>
-      <c r="AV28" s="94"/>
-      <c r="AW28" s="94"/>
-      <c r="AX28" s="94"/>
-      <c r="AY28" s="94"/>
-      <c r="AZ28" s="94"/>
-      <c r="BA28" s="95"/>
+      <c r="AT28" s="78"/>
+      <c r="AU28" s="79"/>
+      <c r="AV28" s="79"/>
+      <c r="AW28" s="79"/>
+      <c r="AX28" s="79"/>
+      <c r="AY28" s="79"/>
+      <c r="AZ28" s="79"/>
+      <c r="BA28" s="80"/>
       <c r="BB28" s="27"/>
       <c r="BC28" s="27"/>
       <c r="BD28" s="27"/>
@@ -4815,14 +4494,14 @@
       <c r="AR29" s="14"/>
       <c r="AS29" s="14"/>
       <c r="AT29" s="27"/>
-      <c r="AU29" s="82"/>
-      <c r="AV29" s="83"/>
-      <c r="AW29" s="83"/>
-      <c r="AX29" s="83"/>
-      <c r="AY29" s="83"/>
-      <c r="AZ29" s="83"/>
-      <c r="BA29" s="83"/>
-      <c r="BB29" s="84"/>
+      <c r="AU29" s="81"/>
+      <c r="AV29" s="82"/>
+      <c r="AW29" s="82"/>
+      <c r="AX29" s="82"/>
+      <c r="AY29" s="82"/>
+      <c r="AZ29" s="82"/>
+      <c r="BA29" s="82"/>
+      <c r="BB29" s="83"/>
       <c r="BC29" s="27"/>
       <c r="BD29" s="27"/>
       <c r="BE29" s="27"/>
@@ -4906,16 +4585,16 @@
       <c r="AP30" s="14"/>
       <c r="AQ30" s="27"/>
       <c r="AR30" s="14"/>
-      <c r="AS30" s="85"/>
-      <c r="AT30" s="86"/>
-      <c r="AU30" s="86"/>
-      <c r="AV30" s="86"/>
-      <c r="AW30" s="86"/>
-      <c r="AX30" s="86"/>
-      <c r="AY30" s="86"/>
-      <c r="AZ30" s="86"/>
-      <c r="BA30" s="86"/>
-      <c r="BB30" s="87"/>
+      <c r="AS30" s="84"/>
+      <c r="AT30" s="85"/>
+      <c r="AU30" s="85"/>
+      <c r="AV30" s="85"/>
+      <c r="AW30" s="85"/>
+      <c r="AX30" s="85"/>
+      <c r="AY30" s="85"/>
+      <c r="AZ30" s="85"/>
+      <c r="BA30" s="85"/>
+      <c r="BB30" s="86"/>
       <c r="BC30" s="27"/>
       <c r="BD30" s="27"/>
       <c r="BE30" s="27"/>
@@ -5000,15 +4679,15 @@
       <c r="AQ31" s="14"/>
       <c r="AR31" s="14"/>
       <c r="AS31" s="14"/>
-      <c r="AT31" s="98"/>
-      <c r="AU31" s="99"/>
-      <c r="AV31" s="99"/>
-      <c r="AW31" s="99"/>
-      <c r="AX31" s="99"/>
-      <c r="AY31" s="99"/>
-      <c r="AZ31" s="99"/>
-      <c r="BA31" s="99"/>
-      <c r="BB31" s="100"/>
+      <c r="AT31" s="90"/>
+      <c r="AU31" s="91"/>
+      <c r="AV31" s="91"/>
+      <c r="AW31" s="91"/>
+      <c r="AX31" s="91"/>
+      <c r="AY31" s="91"/>
+      <c r="AZ31" s="91"/>
+      <c r="BA31" s="91"/>
+      <c r="BB31" s="92"/>
       <c r="BC31" s="27"/>
       <c r="BD31" s="27"/>
       <c r="BE31" s="27"/>
@@ -5093,17 +4772,17 @@
       <c r="AQ32" s="14"/>
       <c r="AR32" s="27"/>
       <c r="AS32" s="14"/>
-      <c r="AT32" s="88"/>
-      <c r="AU32" s="89"/>
-      <c r="AV32" s="89"/>
-      <c r="AW32" s="89"/>
-      <c r="AX32" s="89"/>
-      <c r="AY32" s="89"/>
-      <c r="AZ32" s="89"/>
-      <c r="BA32" s="89"/>
-      <c r="BB32" s="89"/>
-      <c r="BC32" s="89"/>
-      <c r="BD32" s="90"/>
+      <c r="AT32" s="96"/>
+      <c r="AU32" s="97"/>
+      <c r="AV32" s="97"/>
+      <c r="AW32" s="97"/>
+      <c r="AX32" s="97"/>
+      <c r="AY32" s="97"/>
+      <c r="AZ32" s="97"/>
+      <c r="BA32" s="97"/>
+      <c r="BB32" s="97"/>
+      <c r="BC32" s="97"/>
+      <c r="BD32" s="98"/>
       <c r="BE32" s="27"/>
       <c r="BF32" s="27"/>
       <c r="BG32" s="14"/>
@@ -5186,15 +4865,15 @@
       <c r="AQ33" s="14"/>
       <c r="AR33" s="14"/>
       <c r="AS33" s="14"/>
-      <c r="AT33" s="96"/>
-      <c r="AU33" s="102"/>
-      <c r="AV33" s="102"/>
-      <c r="AW33" s="102"/>
-      <c r="AX33" s="102"/>
-      <c r="AY33" s="102"/>
-      <c r="AZ33" s="102"/>
-      <c r="BA33" s="102"/>
-      <c r="BB33" s="97"/>
+      <c r="AT33" s="87"/>
+      <c r="AU33" s="88"/>
+      <c r="AV33" s="88"/>
+      <c r="AW33" s="88"/>
+      <c r="AX33" s="88"/>
+      <c r="AY33" s="88"/>
+      <c r="AZ33" s="88"/>
+      <c r="BA33" s="88"/>
+      <c r="BB33" s="89"/>
       <c r="BC33" s="27"/>
       <c r="BD33" s="27"/>
       <c r="BE33" s="27"/>
@@ -5284,10 +4963,10 @@
       <c r="AV34" s="27"/>
       <c r="AW34" s="27"/>
       <c r="AX34" s="27"/>
-      <c r="AY34" s="82"/>
-      <c r="AZ34" s="83"/>
-      <c r="BA34" s="83"/>
-      <c r="BB34" s="84"/>
+      <c r="AY34" s="81"/>
+      <c r="AZ34" s="82"/>
+      <c r="BA34" s="82"/>
+      <c r="BB34" s="83"/>
       <c r="BC34" s="27"/>
       <c r="BD34" s="27"/>
       <c r="BE34" s="27"/>
@@ -5372,15 +5051,15 @@
       <c r="AQ35" s="14"/>
       <c r="AR35" s="14"/>
       <c r="AS35" s="14"/>
-      <c r="AT35" s="98"/>
-      <c r="AU35" s="99"/>
-      <c r="AV35" s="99"/>
-      <c r="AW35" s="99"/>
-      <c r="AX35" s="99"/>
-      <c r="AY35" s="99"/>
-      <c r="AZ35" s="99"/>
-      <c r="BA35" s="99"/>
-      <c r="BB35" s="100"/>
+      <c r="AT35" s="90"/>
+      <c r="AU35" s="91"/>
+      <c r="AV35" s="91"/>
+      <c r="AW35" s="91"/>
+      <c r="AX35" s="91"/>
+      <c r="AY35" s="91"/>
+      <c r="AZ35" s="91"/>
+      <c r="BA35" s="91"/>
+      <c r="BB35" s="92"/>
       <c r="BC35" s="27"/>
       <c r="BD35" s="27"/>
       <c r="BE35" s="27"/>
@@ -5463,17 +5142,17 @@
       <c r="AO36" s="14"/>
       <c r="AP36" s="27"/>
       <c r="AQ36" s="27"/>
-      <c r="AR36" s="96"/>
-      <c r="AS36" s="102"/>
-      <c r="AT36" s="102"/>
-      <c r="AU36" s="102"/>
-      <c r="AV36" s="102"/>
-      <c r="AW36" s="102"/>
-      <c r="AX36" s="102"/>
-      <c r="AY36" s="102"/>
-      <c r="AZ36" s="102"/>
-      <c r="BA36" s="102"/>
-      <c r="BB36" s="97"/>
+      <c r="AR36" s="87"/>
+      <c r="AS36" s="88"/>
+      <c r="AT36" s="88"/>
+      <c r="AU36" s="88"/>
+      <c r="AV36" s="88"/>
+      <c r="AW36" s="88"/>
+      <c r="AX36" s="88"/>
+      <c r="AY36" s="88"/>
+      <c r="AZ36" s="88"/>
+      <c r="BA36" s="88"/>
+      <c r="BB36" s="89"/>
       <c r="BC36" s="14"/>
       <c r="BD36" s="27"/>
       <c r="BE36" s="27"/>
@@ -5564,9 +5243,9 @@
       <c r="AW37" s="27"/>
       <c r="AX37" s="27"/>
       <c r="AY37" s="27"/>
-      <c r="AZ37" s="82"/>
-      <c r="BA37" s="83"/>
-      <c r="BB37" s="84"/>
+      <c r="AZ37" s="81"/>
+      <c r="BA37" s="82"/>
+      <c r="BB37" s="83"/>
       <c r="BC37" s="27"/>
       <c r="BD37" s="27"/>
       <c r="BE37" s="27"/>
@@ -5657,9 +5336,9 @@
       <c r="AW38" s="27"/>
       <c r="AX38" s="27"/>
       <c r="AY38" s="27"/>
-      <c r="AZ38" s="85"/>
-      <c r="BA38" s="86"/>
-      <c r="BB38" s="87"/>
+      <c r="AZ38" s="84"/>
+      <c r="BA38" s="85"/>
+      <c r="BB38" s="86"/>
       <c r="BC38" s="27"/>
       <c r="BD38" s="27"/>
       <c r="BE38" s="27"/>
@@ -5750,9 +5429,9 @@
       <c r="AW39" s="27"/>
       <c r="AX39" s="27"/>
       <c r="AY39" s="27"/>
-      <c r="AZ39" s="85"/>
-      <c r="BA39" s="86"/>
-      <c r="BB39" s="87"/>
+      <c r="AZ39" s="84"/>
+      <c r="BA39" s="85"/>
+      <c r="BB39" s="86"/>
       <c r="BC39" s="27"/>
       <c r="BD39" s="27"/>
       <c r="BE39" s="27"/>
@@ -5844,9 +5523,9 @@
       <c r="AX40" s="27"/>
       <c r="AY40" s="27"/>
       <c r="AZ40" s="27"/>
-      <c r="BA40" s="98"/>
-      <c r="BB40" s="99"/>
-      <c r="BC40" s="100"/>
+      <c r="BA40" s="90"/>
+      <c r="BB40" s="91"/>
+      <c r="BC40" s="92"/>
       <c r="BD40" s="27"/>
       <c r="BE40" s="27"/>
       <c r="BF40" s="27"/>
@@ -5937,9 +5616,9 @@
       <c r="AX41" s="27"/>
       <c r="AY41" s="27"/>
       <c r="AZ41" s="27"/>
-      <c r="BA41" s="98"/>
-      <c r="BB41" s="99"/>
-      <c r="BC41" s="100"/>
+      <c r="BA41" s="90"/>
+      <c r="BB41" s="91"/>
+      <c r="BC41" s="92"/>
       <c r="BD41" s="27"/>
       <c r="BE41" s="27"/>
       <c r="BF41" s="27"/>
@@ -6123,11 +5802,11 @@
       <c r="BD43" s="14"/>
       <c r="BE43" s="14"/>
       <c r="BF43" s="14"/>
-      <c r="BG43" s="91"/>
-      <c r="BH43" s="101"/>
-      <c r="BI43" s="101"/>
-      <c r="BJ43" s="101"/>
-      <c r="BK43" s="92"/>
+      <c r="BG43" s="93"/>
+      <c r="BH43" s="94"/>
+      <c r="BI43" s="94"/>
+      <c r="BJ43" s="94"/>
+      <c r="BK43" s="95"/>
       <c r="BL43" s="27"/>
       <c r="BM43" s="27"/>
       <c r="BN43" s="27"/>
@@ -6227,12 +5906,12 @@
       <c r="BO44" s="27"/>
       <c r="BP44" s="27"/>
       <c r="BQ44" s="27"/>
-      <c r="BR44" s="88"/>
-      <c r="BS44" s="89"/>
-      <c r="BT44" s="89"/>
-      <c r="BU44" s="89"/>
-      <c r="BV44" s="89"/>
-      <c r="BW44" s="90"/>
+      <c r="BR44" s="96"/>
+      <c r="BS44" s="97"/>
+      <c r="BT44" s="97"/>
+      <c r="BU44" s="97"/>
+      <c r="BV44" s="97"/>
+      <c r="BW44" s="98"/>
       <c r="BX44" s="27"/>
       <c r="BY44" s="27"/>
       <c r="BZ44" s="14"/>
@@ -6318,13 +5997,13 @@
       <c r="BM45" s="27"/>
       <c r="BN45" s="27"/>
       <c r="BO45" s="27"/>
-      <c r="BP45" s="93"/>
-      <c r="BQ45" s="94"/>
-      <c r="BR45" s="94"/>
-      <c r="BS45" s="94"/>
-      <c r="BT45" s="94"/>
-      <c r="BU45" s="94"/>
-      <c r="BV45" s="95"/>
+      <c r="BP45" s="78"/>
+      <c r="BQ45" s="79"/>
+      <c r="BR45" s="79"/>
+      <c r="BS45" s="79"/>
+      <c r="BT45" s="79"/>
+      <c r="BU45" s="79"/>
+      <c r="BV45" s="80"/>
       <c r="BW45" s="27"/>
       <c r="BX45" s="27"/>
       <c r="BY45" s="27"/>
@@ -6896,6 +6575,35 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
+    <mergeCell ref="AP4:AV4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="U4:AA4"/>
+    <mergeCell ref="AB4:AH4"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="AE20:AH20"/>
+    <mergeCell ref="AE21:AH21"/>
+    <mergeCell ref="AE22:AI22"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="AI4:AO4"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="AE19:AH19"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="AH23:AI23"/>
+    <mergeCell ref="AV25:BC25"/>
+    <mergeCell ref="AT32:BD32"/>
+    <mergeCell ref="AQ27:BB27"/>
+    <mergeCell ref="AU29:BB29"/>
+    <mergeCell ref="AS26:AV26"/>
     <mergeCell ref="BP45:BV45"/>
     <mergeCell ref="AZ37:BB37"/>
     <mergeCell ref="AY34:BB34"/>
@@ -6911,186 +6619,159 @@
     <mergeCell ref="BA41:BC41"/>
     <mergeCell ref="BG43:BK43"/>
     <mergeCell ref="BR44:BW44"/>
-    <mergeCell ref="AH23:AI23"/>
-    <mergeCell ref="AV25:BC25"/>
-    <mergeCell ref="AT32:BD32"/>
-    <mergeCell ref="AQ27:BB27"/>
-    <mergeCell ref="AU29:BB29"/>
-    <mergeCell ref="AS26:AV26"/>
-    <mergeCell ref="AE20:AH20"/>
-    <mergeCell ref="AE21:AH21"/>
-    <mergeCell ref="AE22:AI22"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="AE19:AH19"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="AP4:AV4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="U4:AA4"/>
-    <mergeCell ref="AB4:AH4"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="Z7:AF16 AN7:BC24 BD51:BX51 G7:Y7 G14:S14 U14:Y14 G9:Y13 G8:I8 K8:Y8 G16:T51 CD7:CE51 U24:AM51 BY43:CC51 AN42:BC51">
-    <cfRule type="expression" dxfId="62" priority="60">
-      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U7:Y14 Z7:AF16 AN7:CC24 BD51:BX51 AI7:AM16 AL17:AM23 AI24:AM25 BG25:CC41 AN36:AO36 AN37:AS41 BD42:CC42 AN42:AT51 AW42:BA51 U43:AM51 BY43:CC51 G16:R51">
-    <cfRule type="expression" dxfId="61" priority="61" stopIfTrue="1">
+  <conditionalFormatting sqref="U7:Y14 Z7:AF16 AN7:CC24 G16:R51 AI24:AM25 AN42:AT51 AW42:BA51 U43:AM51 BY43:CC51 BD51:BX51 AI7:AM16 AL17:AM23 BG25:CC41 AN36:AO36 AN37:AS41 BD42:CC42">
+    <cfRule type="expression" dxfId="30" priority="61" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U16:Y16 AG7:AM16 BD7:CC25 AW26:CC26 BC27:CC27 BB28:CC28 BC29:CC31 BE32:CC32 BC33:CC39 AN36:AR36 AN37:AZ39 AN40:BA41 BD40:CC42 G6:CE6 G15:P15 R15:T15 AT28:AT29 AU29 AT31:AT33 AT34:AY34 AT35 BD48:BR48 BT48:BX48 BD49:BT49 BV49:BX49">
-    <cfRule type="expression" dxfId="60" priority="193">
+    <cfRule type="expression" dxfId="29" priority="193">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U42:AA42">
-    <cfRule type="expression" dxfId="59" priority="132">
+    <cfRule type="expression" dxfId="28" priority="132">
       <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="U24:AM51 G7:Y7 Z7:AF16 AN7:BC24 CD7:CE51 G8:I8 K8:Y8 G9:Y13 G14:S14 U14:Y14 G16:T51 AN42:BC51 BY43:CC51">
+    <cfRule type="expression" dxfId="27" priority="60">
+      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="W15:Y15 U16:Y16 U17:X20">
-    <cfRule type="expression" dxfId="58" priority="150">
+    <cfRule type="expression" dxfId="26" priority="150">
       <formula>AND(TODAY()&gt;=U$5,TODAY()&lt;V$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15:Y15 U16:Y16">
-    <cfRule type="expression" dxfId="57" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="149" stopIfTrue="1">
       <formula>AND(task_end&gt;=U$5,task_start&lt;V$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15:Y15">
-    <cfRule type="expression" dxfId="56" priority="148">
+    <cfRule type="expression" dxfId="24" priority="148">
       <formula>AND(task_start&lt;=W$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=W$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z24:AA41">
-    <cfRule type="expression" dxfId="55" priority="74">
+    <cfRule type="expression" dxfId="23" priority="74">
       <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB17:AM18 AI19:AM21 AJ22:AM23 U17:Y17 U18:Z18 U19:AE22 U23:AH23">
-    <cfRule type="expression" dxfId="54" priority="72">
+    <cfRule type="expression" dxfId="22" priority="72">
       <formula>AND(task_start&lt;=U$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=U$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN25:AN26 AP25:AQ25 AJ26:AJ27 AL26:AL27">
-    <cfRule type="expression" dxfId="53" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="49" stopIfTrue="1">
       <formula>AND(task_end&gt;=AJ$5,task_start&lt;AK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN25:AO33">
-    <cfRule type="expression" dxfId="52" priority="48">
+    <cfRule type="expression" dxfId="20" priority="48">
       <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN34:AS35">
-    <cfRule type="expression" dxfId="51" priority="19">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP30 AR30">
-    <cfRule type="expression" dxfId="50" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="39" stopIfTrue="1">
       <formula>AND(task_end&gt;=AP$5,task_start&lt;AQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP34:AP35">
-    <cfRule type="expression" dxfId="49" priority="20">
+    <cfRule type="expression" dxfId="17" priority="20">
       <formula>AND(TODAY()&gt;=AP$5,TODAY()&lt;AQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP27:AQ27 AP28:AS33">
-    <cfRule type="expression" dxfId="48" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>AND(task_start&lt;=AP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AP$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP32:AQ32">
-    <cfRule type="expression" dxfId="47" priority="30">
+    <cfRule type="expression" dxfId="15" priority="30">
       <formula>AND(TODAY()&gt;=AP$5,TODAY()&lt;AQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP30:AR30">
-    <cfRule type="expression" dxfId="46" priority="40">
+    <cfRule type="expression" dxfId="14" priority="40">
       <formula>AND(TODAY()&gt;=AP$5,TODAY()&lt;AQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP25:AS25 AN25:AO33 AP26:AR26">
-    <cfRule type="expression" dxfId="45" priority="50">
+    <cfRule type="expression" dxfId="13" priority="50">
       <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP28:AS29 AP27:AQ27">
-    <cfRule type="expression" dxfId="44" priority="45">
+    <cfRule type="expression" dxfId="12" priority="45">
       <formula>AND(TODAY()&gt;=AP$5,TODAY()&lt;AQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP25:AV25 AP26:AS26">
-    <cfRule type="expression" dxfId="43" priority="38">
+    <cfRule type="expression" dxfId="11" priority="38">
       <formula>AND(task_start&lt;=AP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AP$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ32">
-    <cfRule type="expression" dxfId="42" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="29" stopIfTrue="1">
       <formula>AND(task_end&gt;=AQ$5,task_start&lt;AR$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ34:AR34 AN34:AO35 AQ35:AS35">
-    <cfRule type="expression" dxfId="41" priority="23">
+    <cfRule type="expression" dxfId="9" priority="23">
       <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ34:AR34 AO34:AO35 AQ35">
-    <cfRule type="expression" dxfId="40" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="22" stopIfTrue="1">
       <formula>AND(task_end&gt;=AO$5,task_start&lt;AP$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR32">
-    <cfRule type="expression" dxfId="39" priority="27">
+    <cfRule type="expression" dxfId="7" priority="27">
       <formula>AND(TODAY()&gt;=AR$5,TODAY()&lt;AS$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS28">
-    <cfRule type="expression" dxfId="38" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="44" stopIfTrue="1">
       <formula>AND(task_end&gt;=AS$5,task_start&lt;AT$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS30:AS34">
-    <cfRule type="expression" dxfId="37" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>AND(TODAY()&gt;=AS$5,TODAY()&lt;AT$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD43:BG43 BL43:BX43 BD44:BR44 BX44 BD45:BO45 BW45:BX45 BD46:BX47">
-    <cfRule type="expression" dxfId="36" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>AND(TODAY()&gt;=BD$5,TODAY()&lt;BE$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD43:BG43 BL43:BX43 BD44:BR44 BX44 BD45:BP45 BW45:BX45 BD46:BX47">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND(task_start&lt;=BD$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BD$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD50:BX50">
-    <cfRule type="expression" dxfId="34" priority="4">
-      <formula>AND(task_start&lt;=BD$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BD$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>AND(TODAY()&gt;=BD$5,TODAY()&lt;BE$5)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="BD50:BX51">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>AND(task_start&lt;=BD$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BD$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="BY5:CE5 BX5:BX6 CE6">
-    <cfRule type="expression" dxfId="32" priority="201">
+    <cfRule type="expression" dxfId="0" priority="201">
       <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
